--- a/2P sheets/all 2P/LLC_Genus_2PSummary.xlsx
+++ b/2P sheets/all 2P/LLC_Genus_2PSummary.xlsx
@@ -635,40 +635,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000893698</v>
+        <v>0.00962</v>
       </c>
       <c r="F2" t="n">
         <v>-18.8374596340151</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00962</v>
+        <v>0.103552206673843</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0034528787749225</v>
+        <v>0.083007760625</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06504346454375</v>
+        <v>-1.56365534008342</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.260173858175</v>
+        <v>-6.25462136033369</v>
       </c>
       <c r="K2" t="n">
-        <v>1.3136978436375</v>
+        <v>25.5296419521439</v>
       </c>
       <c r="L2" t="n">
-        <v>4.034259126</v>
+        <v>55.8183440814496</v>
       </c>
       <c r="M2" t="n">
-        <v>3.07091858720688</v>
+        <v>2.18641311876143</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.344753042</v>
+        <v>18.6061146938165</v>
       </c>
       <c r="P2" t="n">
-        <v>1.02363952906896</v>
+        <v>0.728804372920477</v>
       </c>
       <c r="Q2" t="n">
         <v>0.381230949298567</v>
@@ -688,40 +688,40 @@
         <v>29.6017222820237</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006012059549845</v>
+        <v>0.15639552125</v>
       </c>
       <c r="F3" t="n">
         <v>-8.07319698600646</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1779673171375</v>
+        <v>4.62957678619483</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0121733888153725</v>
+        <v>0.292004125041667</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09827816589375</v>
+        <v>-2.35740682218784</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.393112663575</v>
+        <v>-9.42962728875135</v>
       </c>
       <c r="K3" t="n">
-        <v>1.3136978436375</v>
+        <v>25.5296419521439</v>
       </c>
       <c r="L3" t="n">
-        <v>4.034259126</v>
+        <v>55.8183440814496</v>
       </c>
       <c r="M3" t="n">
-        <v>3.07091858720688</v>
+        <v>2.18641311876143</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.344753042</v>
+        <v>18.6061146938165</v>
       </c>
       <c r="P3" t="n">
-        <v>1.02363952906896</v>
+        <v>0.728804372920477</v>
       </c>
       <c r="Q3" t="n">
         <v>0.381230949298567</v>
@@ -741,40 +741,40 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0183347180809</v>
+        <v>0.427612728833333</v>
       </c>
       <c r="F4" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6907590235</v>
+        <v>16.1102750367779</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0293894363548</v>
+        <v>0.431482115916667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.79088903</v>
+        <v>11.6114670591137</v>
       </c>
       <c r="J4" t="n">
-        <v>3.16355612</v>
+        <v>46.445868236455</v>
       </c>
       <c r="K4" t="n">
-        <v>1.3136978436375</v>
+        <v>25.5296419521439</v>
       </c>
       <c r="L4" t="n">
-        <v>4.034259126</v>
+        <v>55.8183440814496</v>
       </c>
       <c r="M4" t="n">
-        <v>3.07091858720688</v>
+        <v>2.18641311876143</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.344753042</v>
+        <v>18.6061146938165</v>
       </c>
       <c r="P4" t="n">
-        <v>1.02363952906896</v>
+        <v>0.728804372920477</v>
       </c>
       <c r="Q4" t="n">
         <v>0.381230949298567</v>
@@ -794,40 +794,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0404441546287</v>
+        <v>0.435351503</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.435351503</v>
+        <v>4.68623792249731</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02022207731435</v>
+        <v>0.2176757515</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2176757515</v>
+        <v>2.34311896124865</v>
       </c>
       <c r="J5" t="n">
-        <v>0.870703006</v>
+        <v>9.37247584499462</v>
       </c>
       <c r="K5" t="n">
-        <v>1.3136978436375</v>
+        <v>25.5296419521439</v>
       </c>
       <c r="L5" t="n">
-        <v>4.034259126</v>
+        <v>55.8183440814496</v>
       </c>
       <c r="M5" t="n">
-        <v>3.07091858720688</v>
+        <v>2.18641311876143</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.344753042</v>
+        <v>18.6061146938165</v>
       </c>
       <c r="P5" t="n">
-        <v>1.02363952906896</v>
+        <v>0.728804372920477</v>
       </c>
       <c r="Q5" t="n">
         <v>0.381230949298567</v>
@@ -914,43 +914,43 @@
         <v>134.553283100108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00091042</v>
+        <v>0.06125</v>
       </c>
       <c r="F2" t="n">
         <v>-44.1334768568353</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1225</v>
+        <v>8.2413885898816</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00325361380792132</v>
+        <v>0.270731118634929</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.143593289692975</v>
+        <v>-11.9483055586998</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.15389934539463</v>
+        <v>-179.224583380497</v>
       </c>
       <c r="K2" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L2" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M2" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N2" t="n">
         <v>0.8</v>
       </c>
       <c r="O2" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P2" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="3">
@@ -967,43 +967,43 @@
         <v>178.686759956943</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00559680761584263</v>
+        <v>0.480212237269858</v>
       </c>
       <c r="F3" t="n">
         <v>19.0168640114819</v>
       </c>
       <c r="G3" t="n">
-        <v>1.00007541897726</v>
+        <v>85.8075687694257</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01494237532974</v>
+        <v>0.792661284225405</v>
       </c>
       <c r="I3" t="n">
-        <v>0.284157119654188</v>
+        <v>15.0739318492811</v>
       </c>
       <c r="J3" t="n">
-        <v>4.26235679481282</v>
+        <v>226.108977739216</v>
       </c>
       <c r="K3" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L3" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M3" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N3" t="n">
         <v>0.8</v>
       </c>
       <c r="O3" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P3" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="4">
@@ -1020,43 +1020,43 @@
         <v>159.669895945461</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0242879430436375</v>
+        <v>1.10511033118095</v>
       </c>
       <c r="F4" t="n">
         <v>44.8510943667025</v>
       </c>
       <c r="G4" t="n">
-        <v>3.87805333850688</v>
+        <v>176.452851587917</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0379487556505203</v>
+        <v>1.28984451012751</v>
       </c>
       <c r="I4" t="n">
-        <v>1.70204322078042</v>
+        <v>57.8509378421023</v>
       </c>
       <c r="J4" t="n">
-        <v>25.5306483117063</v>
+        <v>867.764067631534</v>
       </c>
       <c r="K4" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L4" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M4" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N4" t="n">
         <v>0.8</v>
       </c>
       <c r="O4" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P4" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="5">
@@ -1073,43 +1073,43 @@
         <v>114.818801578759</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0516095682574032</v>
+        <v>1.47457868907407</v>
       </c>
       <c r="F5" t="n">
         <v>28.7047003946897</v>
       </c>
       <c r="G5" t="n">
-        <v>5.92574877731217</v>
+        <v>169.309357913062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0875414542315016</v>
+        <v>2.06638880853704</v>
       </c>
       <c r="I5" t="n">
-        <v>2.51285121583069</v>
+        <v>59.3150716479954</v>
       </c>
       <c r="J5" t="n">
-        <v>37.6927682374604</v>
+        <v>889.726074719931</v>
       </c>
       <c r="K5" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L5" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M5" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N5" t="n">
         <v>0.8</v>
       </c>
       <c r="O5" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P5" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="6">
@@ -1126,43 +1126,43 @@
         <v>86.1141011840689</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1234733402056</v>
+        <v>2.658198928</v>
       </c>
       <c r="F6" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G6" t="n">
-        <v>10.632795712</v>
+        <v>228.908411453175</v>
       </c>
       <c r="H6" t="n">
-        <v>0.161276768566787</v>
+        <v>2.802378639</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3400637396875</v>
+        <v>75.4138492734123</v>
       </c>
       <c r="J6" t="n">
-        <v>65.1009560953125</v>
+        <v>1131.20773910118</v>
       </c>
       <c r="K6" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L6" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M6" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N6" t="n">
         <v>0.8</v>
       </c>
       <c r="O6" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P6" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="7">
@@ -1179,43 +1179,43 @@
         <v>59.2034445640474</v>
       </c>
       <c r="E7" t="n">
-        <v>0.199080196927975</v>
+        <v>2.94655835</v>
       </c>
       <c r="F7" t="n">
         <v>48.4391819160388</v>
       </c>
       <c r="G7" t="n">
-        <v>11.786233402625</v>
+        <v>174.446403928956</v>
       </c>
       <c r="H7" t="n">
-        <v>0.136808319531987</v>
+        <v>1.874444095</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6268830774375</v>
+        <v>90.7965385091496</v>
       </c>
       <c r="J7" t="n">
-        <v>99.4032461615625</v>
+        <v>1361.94807763724</v>
       </c>
       <c r="K7" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L7" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M7" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N7" t="n">
         <v>0.8</v>
       </c>
       <c r="O7" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P7" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="8">
@@ -1232,43 +1232,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.074536442136</v>
+        <v>0.80232984</v>
       </c>
       <c r="F8" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>0.80232984</v>
+        <v>8.63648912809473</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1430248404692</v>
+        <v>1.539556948</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.539556948</v>
+        <v>-16.5721953498385</v>
       </c>
       <c r="J8" t="n">
-        <v>-23.09335422</v>
+        <v>-248.582930247578</v>
       </c>
       <c r="K8" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L8" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M8" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N8" t="n">
         <v>0.8</v>
       </c>
       <c r="O8" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P8" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="9">
@@ -1285,43 +1285,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2115132388024</v>
+        <v>2.276784056</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>4.553568112</v>
+        <v>49.0158031431647</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17775076352805</v>
+        <v>1.9133559045</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9133559045</v>
+        <v>20.5958654951561</v>
       </c>
       <c r="J9" t="n">
-        <v>28.7003385675</v>
+        <v>308.937982427341</v>
       </c>
       <c r="K9" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L9" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M9" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N9" t="n">
         <v>0.8</v>
       </c>
       <c r="O9" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P9" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="10">
@@ -1338,43 +1338,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1439882882537</v>
+        <v>1.549927753</v>
       </c>
       <c r="F10" t="n">
         <v>-53.8213132400431</v>
       </c>
       <c r="G10" t="n">
-        <v>1.549927753</v>
+        <v>16.6838294187298</v>
       </c>
       <c r="H10" t="n">
-        <v>0.26175725617595</v>
+        <v>6.9029438135</v>
       </c>
       <c r="I10" t="n">
-        <v>-14.0881192775</v>
+        <v>-371.525501264801</v>
       </c>
       <c r="J10" t="n">
-        <v>-211.3217891625</v>
+        <v>-5572.88251897201</v>
       </c>
       <c r="K10" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L10" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M10" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N10" t="n">
         <v>0.8</v>
       </c>
       <c r="O10" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P10" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="11">
@@ -1391,43 +1391,43 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3795262240982</v>
+        <v>12.255959874</v>
       </c>
       <c r="F11" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G11" t="n">
-        <v>24.511919748</v>
+        <v>791.558226523143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.31155844122035</v>
+        <v>7.4390168495</v>
       </c>
       <c r="I11" t="n">
-        <v>16.7684844575</v>
+        <v>400.377656054898</v>
       </c>
       <c r="J11" t="n">
-        <v>251.5272668625</v>
+        <v>6005.66484082347</v>
       </c>
       <c r="K11" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L11" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M11" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N11" t="n">
         <v>0.8</v>
       </c>
       <c r="O11" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P11" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="12">
@@ -1444,16 +1444,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2435906583425</v>
+        <v>2.622073825</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.622073825</v>
+        <v>28.2246913347686</v>
       </c>
       <c r="H12" t="n">
-        <v>0.31046990460775</v>
+        <v>3.3419795975</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1462,25 +1462,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L12" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M12" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N12" t="n">
         <v>0.8</v>
       </c>
       <c r="O12" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P12" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="13">
@@ -1497,16 +1497,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E13" t="n">
-        <v>0.377349150873</v>
+        <v>4.06188537</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.06188537</v>
+        <v>43.7232009687836</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4177809916067</v>
+        <v>4.497104323</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1515,25 +1515,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L13" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M13" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N13" t="n">
         <v>0.8</v>
       </c>
       <c r="O13" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P13" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="14">
@@ -1550,43 +1550,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4582128323404</v>
+        <v>4.932323276</v>
       </c>
       <c r="F14" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G14" t="n">
-        <v>4.932323276</v>
+        <v>53.0928232077503</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9911643133284</v>
+        <v>10.669152996</v>
       </c>
       <c r="I14" t="n">
-        <v>-10.669152996</v>
+        <v>-114.845565080732</v>
       </c>
       <c r="J14" t="n">
-        <v>-160.03729494</v>
+        <v>-1722.68347621098</v>
       </c>
       <c r="K14" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L14" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M14" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N14" t="n">
         <v>0.8</v>
       </c>
       <c r="O14" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P14" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="15">
@@ -1603,43 +1603,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E15" t="n">
-        <v>1.5241157943164</v>
+        <v>16.405982716</v>
       </c>
       <c r="F15" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G15" t="n">
-        <v>32.811965432</v>
+        <v>353.196613907427</v>
       </c>
       <c r="H15" t="n">
-        <v>1.204641950315</v>
+        <v>12.96708235</v>
       </c>
       <c r="I15" t="n">
-        <v>12.96708235</v>
+        <v>139.581080193757</v>
       </c>
       <c r="J15" t="n">
-        <v>194.50623525</v>
+        <v>2093.71620290635</v>
       </c>
       <c r="K15" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L15" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M15" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N15" t="n">
         <v>0.8</v>
       </c>
       <c r="O15" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P15" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
     <row r="16">
@@ -1656,43 +1656,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8851681063136</v>
+        <v>9.528181984</v>
       </c>
       <c r="F16" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G16" t="n">
-        <v>9.528181984</v>
+        <v>102.5638534338</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4425840531568</v>
+        <v>4.764090992</v>
       </c>
       <c r="I16" t="n">
-        <v>4.764090992</v>
+        <v>51.2819267168999</v>
       </c>
       <c r="J16" t="n">
-        <v>71.46136488</v>
+        <v>769.228900753498</v>
       </c>
       <c r="K16" t="n">
-        <v>118.719581989421</v>
+        <v>2289.86151330808</v>
       </c>
       <c r="L16" t="n">
-        <v>778.185181160855</v>
+        <v>13654.3028637398</v>
       </c>
       <c r="M16" t="n">
-        <v>6.55481739507974</v>
+        <v>5.96293827569244</v>
       </c>
       <c r="N16" t="n">
         <v>0.8</v>
       </c>
       <c r="O16" t="n">
-        <v>972.731476451068</v>
+        <v>17067.8785796747</v>
       </c>
       <c r="P16" t="n">
-        <v>8.19352174384968</v>
+        <v>7.45367284461555</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0537470845710332</v>
+        <v>0.0394300418854995</v>
       </c>
     </row>
   </sheetData>
@@ -1776,28 +1776,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00039947</v>
+        <v>0.0043</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0043</v>
+        <v>0.046286329386437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000199735</v>
+        <v>0.00215</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00215</v>
+        <v>0.0231431646932185</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00215</v>
+        <v>0.0231431646932185</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0043</v>
+        <v>0.046286329386437</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00215</v>
+        <v>0.0231431646932185</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -1806,7 +1806,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000179166666666667</v>
+        <v>0.00192859705776821</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -1896,16 +1896,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2504239589972</v>
+        <v>2.695629268</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.695629268</v>
+        <v>29.0164614424112</v>
       </c>
       <c r="H2" t="n">
-        <v>0.33459284720875</v>
+        <v>3.6016452875</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.203290575</v>
+        <v>77.538111679225</v>
       </c>
       <c r="L2" t="n">
-        <v>4.507661307</v>
+        <v>48.5216502368138</v>
       </c>
       <c r="M2" t="n">
         <v>0.625778074626679</v>
@@ -1926,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7512768845</v>
+        <v>8.08694170613563</v>
       </c>
       <c r="P2" t="n">
         <v>0.104296345771113</v>
@@ -1949,28 +1949,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4187617354203</v>
+        <v>4.507661307</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>4.507661307</v>
+        <v>48.5216502368138</v>
       </c>
       <c r="H3" t="n">
-        <v>0.20938086771015</v>
+        <v>2.2538306535</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2538306535</v>
+        <v>24.2608251184069</v>
       </c>
       <c r="J3" t="n">
-        <v>4.507661307</v>
+        <v>48.5216502368138</v>
       </c>
       <c r="K3" t="n">
-        <v>7.203290575</v>
+        <v>77.538111679225</v>
       </c>
       <c r="L3" t="n">
-        <v>4.507661307</v>
+        <v>48.5216502368138</v>
       </c>
       <c r="M3" t="n">
         <v>0.625778074626679</v>
@@ -1979,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7512768845</v>
+        <v>8.08694170613563</v>
       </c>
       <c r="P3" t="n">
         <v>0.104296345771113</v>
@@ -2069,16 +2069,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00152356</v>
+        <v>0.0164</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0164</v>
+        <v>0.176533907427341</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0449456020185</v>
+        <v>0.483806265</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.086853025</v>
+        <v>43.9919593649085</v>
       </c>
       <c r="L2" t="n">
-        <v>4.6788607425</v>
+        <v>50.3644859257266</v>
       </c>
       <c r="M2" t="n">
         <v>1.14485662045554</v>
@@ -2099,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.169715185625</v>
+        <v>12.5911214814316</v>
       </c>
       <c r="P2" t="n">
         <v>0.286214155113885</v>
@@ -2122,16 +2122,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.088367644037</v>
+        <v>0.95121253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.95121253</v>
+        <v>10.2391015069968</v>
       </c>
       <c r="H3" t="n">
-        <v>0.18907254301125</v>
+        <v>2.0352265125</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.086853025</v>
+        <v>43.9919593649085</v>
       </c>
       <c r="L3" t="n">
-        <v>4.6788607425</v>
+        <v>50.3644859257266</v>
       </c>
       <c r="M3" t="n">
         <v>1.14485662045554</v>
@@ -2152,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.169715185625</v>
+        <v>12.5911214814316</v>
       </c>
       <c r="P3" t="n">
         <v>0.286214155113885</v>
@@ -2175,28 +2175,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2897774419855</v>
+        <v>3.119240495</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>3.119240495</v>
+        <v>33.5763239504844</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14488872099275</v>
+        <v>1.5596202475</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5596202475</v>
+        <v>16.7881619752422</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6788607425</v>
+        <v>50.3644859257266</v>
       </c>
       <c r="K4" t="n">
-        <v>4.086853025</v>
+        <v>43.9919593649085</v>
       </c>
       <c r="L4" t="n">
-        <v>4.6788607425</v>
+        <v>50.3644859257266</v>
       </c>
       <c r="M4" t="n">
         <v>1.14485662045554</v>
@@ -2205,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.169715185625</v>
+        <v>12.5911214814316</v>
       </c>
       <c r="P4" t="n">
         <v>0.286214155113885</v>
@@ -2295,28 +2295,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0468330881998</v>
+        <v>0.504123662</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.504123662</v>
+        <v>5.42651950484392</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0234165440999</v>
+        <v>0.252061831</v>
       </c>
       <c r="I2" t="n">
-        <v>0.252061831</v>
+        <v>2.71325975242196</v>
       </c>
       <c r="J2" t="n">
-        <v>0.252061831</v>
+        <v>2.71325975242196</v>
       </c>
       <c r="K2" t="n">
-        <v>0.504123662</v>
+        <v>5.42651950484392</v>
       </c>
       <c r="L2" t="n">
-        <v>0.252061831</v>
+        <v>2.71325975242196</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -2325,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0210051525833333</v>
+        <v>0.226104979368497</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -2415,28 +2415,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1500428872663</v>
+        <v>1.615101047</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.615101047</v>
+        <v>17.3853718729817</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07502144363315</v>
+        <v>0.8075505235</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8075505235</v>
+        <v>8.69268593649085</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8075505235</v>
+        <v>8.69268593649085</v>
       </c>
       <c r="K2" t="n">
-        <v>1.615101047</v>
+        <v>17.3853718729817</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8075505235</v>
+        <v>8.69268593649085</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -2445,7 +2445,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0672958769583333</v>
+        <v>0.724390494707571</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -2535,43 +2535,43 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0237576404468333</v>
+        <v>0.767200445</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.767200445</v>
+        <v>24.7750412809473</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0341861294049167</v>
+        <v>0.8638436925</v>
       </c>
       <c r="I2" t="n">
-        <v>0.367988475833333</v>
+        <v>9.29864039289558</v>
       </c>
       <c r="J2" t="n">
-        <v>2.94390780666667</v>
+        <v>74.3891231431647</v>
       </c>
       <c r="K2" t="n">
-        <v>27.118241296</v>
+        <v>318.763499741658</v>
       </c>
       <c r="L2" t="n">
-        <v>45.0129362866667</v>
+        <v>547.909062432723</v>
       </c>
       <c r="M2" t="n">
-        <v>1.65987667840784</v>
+        <v>1.71885759466431</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>30.0086241911111</v>
+        <v>365.272708288482</v>
       </c>
       <c r="P2" t="n">
-        <v>1.10658445227189</v>
+        <v>1.14590506310954</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0498282059660907</v>
+        <v>0.0343547934496385</v>
       </c>
     </row>
     <row r="3">
@@ -2588,43 +2588,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.044614618363</v>
+        <v>0.96048694</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.96048694</v>
+        <v>20.6778673842842</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07999893254735</v>
+        <v>1.1012512565</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8611295215</v>
+        <v>11.8541577664155</v>
       </c>
       <c r="J3" t="n">
-        <v>6.889036172</v>
+        <v>94.833262131324</v>
       </c>
       <c r="K3" t="n">
-        <v>27.118241296</v>
+        <v>318.763499741658</v>
       </c>
       <c r="L3" t="n">
-        <v>45.0129362866667</v>
+        <v>547.909062432723</v>
       </c>
       <c r="M3" t="n">
-        <v>1.65987667840784</v>
+        <v>1.71885759466431</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>30.0086241911111</v>
+        <v>365.272708288482</v>
       </c>
       <c r="P3" t="n">
-        <v>1.10658445227189</v>
+        <v>1.14590506310954</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0498282059660907</v>
+        <v>0.0343547934496385</v>
       </c>
     </row>
     <row r="4">
@@ -2641,16 +2641,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1153832467317</v>
+        <v>1.242015573</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.242015573</v>
+        <v>13.3693818406889</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1418082829187</v>
+        <v>1.526461603</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2659,25 +2659,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.118241296</v>
+        <v>318.763499741658</v>
       </c>
       <c r="L4" t="n">
-        <v>45.0129362866667</v>
+        <v>547.909062432723</v>
       </c>
       <c r="M4" t="n">
-        <v>1.65987667840784</v>
+        <v>1.71885759466431</v>
       </c>
       <c r="N4" t="n">
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>30.0086241911111</v>
+        <v>365.272708288482</v>
       </c>
       <c r="P4" t="n">
-        <v>1.10658445227189</v>
+        <v>1.14590506310954</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0498282059660907</v>
+        <v>0.0343547934496385</v>
       </c>
     </row>
     <row r="5">
@@ -2694,16 +2694,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1682333191057</v>
+        <v>1.810907633</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.810907633</v>
+        <v>19.4930853928956</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2420798491462</v>
+        <v>2.605811078</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.118241296</v>
+        <v>318.763499741658</v>
       </c>
       <c r="L5" t="n">
-        <v>45.0129362866667</v>
+        <v>547.909062432723</v>
       </c>
       <c r="M5" t="n">
-        <v>1.65987667840784</v>
+        <v>1.71885759466431</v>
       </c>
       <c r="N5" t="n">
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>30.0086241911111</v>
+        <v>365.272708288482</v>
       </c>
       <c r="P5" t="n">
-        <v>1.10658445227189</v>
+        <v>1.14590506310954</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0498282059660907</v>
+        <v>0.0343547934496385</v>
       </c>
     </row>
     <row r="6">
@@ -2747,16 +2747,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3159263791867</v>
+        <v>3.400714523</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.400714523</v>
+        <v>36.6061843164693</v>
       </c>
       <c r="H6" t="n">
-        <v>0.36471476968525</v>
+        <v>3.9258855725</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2765,25 +2765,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.118241296</v>
+        <v>318.763499741658</v>
       </c>
       <c r="L6" t="n">
-        <v>45.0129362866667</v>
+        <v>547.909062432723</v>
       </c>
       <c r="M6" t="n">
-        <v>1.65987667840784</v>
+        <v>1.71885759466431</v>
       </c>
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>30.0086241911111</v>
+        <v>365.272708288482</v>
       </c>
       <c r="P6" t="n">
-        <v>1.10658445227189</v>
+        <v>1.14590506310954</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0498282059660907</v>
+        <v>0.0343547934496385</v>
       </c>
     </row>
     <row r="7">
@@ -2800,16 +2800,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4135031601838</v>
+        <v>4.451056622</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.451056622</v>
+        <v>47.912342540366</v>
       </c>
       <c r="H7" t="n">
-        <v>0.47109209597725</v>
+        <v>5.0709590525</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2818,25 +2818,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>27.118241296</v>
+        <v>318.763499741658</v>
       </c>
       <c r="L7" t="n">
-        <v>45.0129362866667</v>
+        <v>547.909062432723</v>
       </c>
       <c r="M7" t="n">
-        <v>1.65987667840784</v>
+        <v>1.71885759466431</v>
       </c>
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>30.0086241911111</v>
+        <v>365.272708288482</v>
       </c>
       <c r="P7" t="n">
-        <v>1.10658445227189</v>
+        <v>1.14590506310954</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0498282059660907</v>
+        <v>0.0343547934496385</v>
       </c>
     </row>
     <row r="8">
@@ -2853,16 +2853,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5286810317707</v>
+        <v>5.690861483</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.690861483</v>
+        <v>61.2579276964478</v>
       </c>
       <c r="H8" t="n">
-        <v>0.672868176562</v>
+        <v>7.24292978</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2871,25 +2871,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>27.118241296</v>
+        <v>318.763499741658</v>
       </c>
       <c r="L8" t="n">
-        <v>45.0129362866667</v>
+        <v>547.909062432723</v>
       </c>
       <c r="M8" t="n">
-        <v>1.65987667840784</v>
+        <v>1.71885759466431</v>
       </c>
       <c r="N8" t="n">
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>30.0086241911111</v>
+        <v>365.272708288482</v>
       </c>
       <c r="P8" t="n">
-        <v>1.10658445227189</v>
+        <v>1.14590506310954</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0498282059660907</v>
+        <v>0.0343547934496385</v>
       </c>
     </row>
     <row r="9">
@@ -2906,43 +2906,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8170553213533</v>
+        <v>8.794998077</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>8.794998077</v>
+        <v>94.6716692895587</v>
       </c>
       <c r="H9" t="n">
-        <v>0.40852766067665</v>
+        <v>4.3974990385</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3974990385</v>
+        <v>47.3358346447793</v>
       </c>
       <c r="J9" t="n">
-        <v>35.179992308</v>
+        <v>378.686677158235</v>
       </c>
       <c r="K9" t="n">
-        <v>27.118241296</v>
+        <v>318.763499741658</v>
       </c>
       <c r="L9" t="n">
-        <v>45.0129362866667</v>
+        <v>547.909062432723</v>
       </c>
       <c r="M9" t="n">
-        <v>1.65987667840784</v>
+        <v>1.71885759466431</v>
       </c>
       <c r="N9" t="n">
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>30.0086241911111</v>
+        <v>365.272708288482</v>
       </c>
       <c r="P9" t="n">
-        <v>1.10658445227189</v>
+        <v>1.14590506310954</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0498282059660907</v>
+        <v>0.0343547934496385</v>
       </c>
     </row>
   </sheetData>
@@ -3026,16 +3026,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.066969643307</v>
+        <v>0.72087883</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.72087883</v>
+        <v>7.75972906350915</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1932059275221</v>
+        <v>2.079719349</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.159438698</v>
+        <v>44.773290613563</v>
       </c>
       <c r="L2" t="n">
-        <v>3.438559868</v>
+        <v>37.0135615500538</v>
       </c>
       <c r="M2" t="n">
         <v>0.82668843506538</v>
@@ -3056,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.573093311333333</v>
+        <v>6.16892692500897</v>
       </c>
       <c r="P2" t="n">
         <v>0.13778140584423</v>
@@ -3079,28 +3079,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3194422117372</v>
+        <v>3.438559868</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>3.438559868</v>
+        <v>37.0135615500538</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1597211058686</v>
+        <v>1.719279934</v>
       </c>
       <c r="I3" t="n">
-        <v>1.719279934</v>
+        <v>18.5067807750269</v>
       </c>
       <c r="J3" t="n">
-        <v>3.438559868</v>
+        <v>37.0135615500538</v>
       </c>
       <c r="K3" t="n">
-        <v>4.159438698</v>
+        <v>44.773290613563</v>
       </c>
       <c r="L3" t="n">
-        <v>3.438559868</v>
+        <v>37.0135615500538</v>
       </c>
       <c r="M3" t="n">
         <v>0.82668843506538</v>
@@ -3109,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.573093311333333</v>
+        <v>6.16892692500897</v>
       </c>
       <c r="P3" t="n">
         <v>0.13778140584423</v>
@@ -3199,43 +3199,43 @@
         <v>75.3498385360603</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0008361</v>
+        <v>0.021</v>
       </c>
       <c r="F2" t="n">
         <v>-307.857911733046</v>
       </c>
       <c r="G2" t="n">
-        <v>0.063</v>
+        <v>1.58234660925727</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00312327277138394</v>
+        <v>0.356054112</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.961524233170945</v>
+        <v>-109.614075384284</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.69219386536756</v>
+        <v>-876.912603074273</v>
       </c>
       <c r="K2" t="n">
-        <v>18.2069353272314</v>
+        <v>1311.7835758663</v>
       </c>
       <c r="L2" t="n">
-        <v>76.959896139736</v>
+        <v>4223.98539944555</v>
       </c>
       <c r="M2" t="n">
-        <v>4.2269549903124</v>
+        <v>3.22003223485705</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>51.3065974264906</v>
+        <v>2815.99026629703</v>
       </c>
       <c r="P2" t="n">
-        <v>2.8179699935416</v>
+        <v>2.14668815657137</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.125094534008125</v>
+        <v>0.101558482330702</v>
       </c>
     </row>
     <row r="3">
@@ -3252,43 +3252,43 @@
         <v>383.207750269107</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00541044554276789</v>
+        <v>0.691108224</v>
       </c>
       <c r="F3" t="n">
         <v>55.9741657696448</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0733246643976</v>
+        <v>264.838027711518</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0107700095281445</v>
+        <v>1.22524380395</v>
       </c>
       <c r="I3" t="n">
-        <v>0.602842298669015</v>
+        <v>68.5819997905275</v>
       </c>
       <c r="J3" t="n">
-        <v>4.82273838935212</v>
+        <v>548.65599832422</v>
       </c>
       <c r="K3" t="n">
-        <v>18.2069353272314</v>
+        <v>1311.7835758663</v>
       </c>
       <c r="L3" t="n">
-        <v>76.959896139736</v>
+        <v>4223.98539944555</v>
       </c>
       <c r="M3" t="n">
-        <v>4.2269549903124</v>
+        <v>3.22003223485705</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>51.3065974264906</v>
+        <v>2815.99026629703</v>
       </c>
       <c r="P3" t="n">
-        <v>2.8179699935416</v>
+        <v>2.14668815657137</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.125094534008125</v>
+        <v>0.101558482330702</v>
       </c>
     </row>
     <row r="4">
@@ -3305,43 +3305,43 @@
         <v>327.233584499462</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0161295735135211</v>
+        <v>1.7593793839</v>
       </c>
       <c r="F4" t="n">
         <v>241.119483315393</v>
       </c>
       <c r="G4" t="n">
-        <v>5.2781381572771</v>
+        <v>575.728022288052</v>
       </c>
       <c r="H4" t="n">
-        <v>0.019735209437137</v>
+        <v>1.26290479758838</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75854350260354</v>
+        <v>304.510952271042</v>
       </c>
       <c r="J4" t="n">
-        <v>38.0683480208283</v>
+        <v>2436.08761816834</v>
       </c>
       <c r="K4" t="n">
-        <v>18.2069353272314</v>
+        <v>1311.7835758663</v>
       </c>
       <c r="L4" t="n">
-        <v>76.959896139736</v>
+        <v>4223.98539944555</v>
       </c>
       <c r="M4" t="n">
-        <v>4.2269549903124</v>
+        <v>3.22003223485705</v>
       </c>
       <c r="N4" t="n">
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>51.3065974264906</v>
+        <v>2815.99026629703</v>
       </c>
       <c r="P4" t="n">
-        <v>2.8179699935416</v>
+        <v>2.14668815657137</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.125094534008125</v>
+        <v>0.101558482330702</v>
       </c>
     </row>
     <row r="5">
@@ -3358,43 +3358,43 @@
         <v>86.1141011840689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0233408453607528</v>
+        <v>0.766430211276768</v>
       </c>
       <c r="F5" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G5" t="n">
-        <v>2.00997591911758</v>
+        <v>66.0004487644149</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0329597608539025</v>
+        <v>1.35716222288838</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.177393761323479</v>
+        <v>-7.30442531156288</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.41915009058784</v>
+        <v>-58.4354024925031</v>
       </c>
       <c r="K5" t="n">
-        <v>18.2069353272314</v>
+        <v>1311.7835758663</v>
       </c>
       <c r="L5" t="n">
-        <v>76.959896139736</v>
+        <v>4223.98539944555</v>
       </c>
       <c r="M5" t="n">
-        <v>4.2269549903124</v>
+        <v>3.22003223485705</v>
       </c>
       <c r="N5" t="n">
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>51.3065974264906</v>
+        <v>2815.99026629703</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8179699935416</v>
+        <v>2.14668815657137</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.125094534008125</v>
+        <v>0.101558482330702</v>
       </c>
     </row>
     <row r="6">
@@ -3411,43 +3411,43 @@
         <v>91.4962325080732</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0425786763470521</v>
+        <v>1.9478942345</v>
       </c>
       <c r="F6" t="n">
         <v>23.3225690706853</v>
       </c>
       <c r="G6" t="n">
-        <v>3.89578847093588</v>
+        <v>178.224983780947</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0386852197200829</v>
+        <v>2.15988809058333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.902238708936272</v>
+        <v>50.3741391775805</v>
       </c>
       <c r="J6" t="n">
-        <v>7.21790967149018</v>
+        <v>402.993113420644</v>
       </c>
       <c r="K6" t="n">
-        <v>18.2069353272314</v>
+        <v>1311.7835758663</v>
       </c>
       <c r="L6" t="n">
-        <v>76.959896139736</v>
+        <v>4223.98539944555</v>
       </c>
       <c r="M6" t="n">
-        <v>4.2269549903124</v>
+        <v>3.22003223485705</v>
       </c>
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>51.3065974264906</v>
+        <v>2815.99026629703</v>
       </c>
       <c r="P6" t="n">
-        <v>2.8179699935416</v>
+        <v>2.14668815657137</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.125094534008125</v>
+        <v>0.101558482330702</v>
       </c>
     </row>
     <row r="7">
@@ -3464,43 +3464,43 @@
         <v>68.1736634373879</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0347917630931137</v>
+        <v>2.37188194666667</v>
       </c>
       <c r="F7" t="n">
         <v>35.880875493362</v>
       </c>
       <c r="G7" t="n">
-        <v>2.37188194750327</v>
+        <v>161.69988154527</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0437471237488402</v>
+        <v>2.03689604983333</v>
       </c>
       <c r="I7" t="n">
-        <v>1.56968510042484</v>
+        <v>73.0856135569908</v>
       </c>
       <c r="J7" t="n">
-        <v>12.5574808033987</v>
+        <v>584.684908455926</v>
       </c>
       <c r="K7" t="n">
-        <v>18.2069353272314</v>
+        <v>1311.7835758663</v>
       </c>
       <c r="L7" t="n">
-        <v>76.959896139736</v>
+        <v>4223.98539944555</v>
       </c>
       <c r="M7" t="n">
-        <v>4.2269549903124</v>
+        <v>3.22003223485705</v>
       </c>
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>51.3065974264906</v>
+        <v>2815.99026629703</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8179699935416</v>
+        <v>2.14668815657137</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.125094534008125</v>
+        <v>0.101558482330702</v>
       </c>
     </row>
     <row r="8">
@@ -3517,43 +3517,43 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0527024844045667</v>
+        <v>1.701910153</v>
       </c>
       <c r="F8" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G8" t="n">
-        <v>1.701910153</v>
+        <v>54.9594236706136</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0641111910990333</v>
+        <v>1.257413084</v>
       </c>
       <c r="I8" t="n">
-        <v>1.38021939933333</v>
+        <v>27.070249386437</v>
       </c>
       <c r="J8" t="n">
-        <v>11.0417551946667</v>
+        <v>216.561995091496</v>
       </c>
       <c r="K8" t="n">
-        <v>18.2069353272314</v>
+        <v>1311.7835758663</v>
       </c>
       <c r="L8" t="n">
-        <v>76.959896139736</v>
+        <v>4223.98539944555</v>
       </c>
       <c r="M8" t="n">
-        <v>4.2269549903124</v>
+        <v>3.22003223485705</v>
       </c>
       <c r="N8" t="n">
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>51.3065974264906</v>
+        <v>2815.99026629703</v>
       </c>
       <c r="P8" t="n">
-        <v>2.8179699935416</v>
+        <v>2.14668815657137</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.125094534008125</v>
+        <v>0.101558482330702</v>
       </c>
     </row>
     <row r="9">
@@ -3570,43 +3570,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0755198977935</v>
+        <v>0.812916015</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812916015</v>
+        <v>8.75044149623251</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03775994889675</v>
+        <v>0.4064580075</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4064580075</v>
+        <v>4.37522074811625</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25166406</v>
+        <v>35.00176598493</v>
       </c>
       <c r="K9" t="n">
-        <v>18.2069353272314</v>
+        <v>1311.7835758663</v>
       </c>
       <c r="L9" t="n">
-        <v>76.959896139736</v>
+        <v>4223.98539944555</v>
       </c>
       <c r="M9" t="n">
-        <v>4.2269549903124</v>
+        <v>3.22003223485705</v>
       </c>
       <c r="N9" t="n">
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>51.3065974264906</v>
+        <v>2815.99026629703</v>
       </c>
       <c r="P9" t="n">
-        <v>2.8179699935416</v>
+        <v>2.14668815657137</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.125094534008125</v>
+        <v>0.101558482330702</v>
       </c>
     </row>
   </sheetData>
@@ -3690,28 +3690,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0024357131424</v>
+        <v>0.026218656</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.026218656</v>
+        <v>0.282224499461787</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0012178565712</v>
+        <v>0.013109328</v>
       </c>
       <c r="I2" t="n">
-        <v>0.013109328</v>
+        <v>0.141112249730893</v>
       </c>
       <c r="J2" t="n">
-        <v>0.013109328</v>
+        <v>0.141112249730893</v>
       </c>
       <c r="K2" t="n">
-        <v>0.026218656</v>
+        <v>0.282224499461787</v>
       </c>
       <c r="L2" t="n">
-        <v>0.013109328</v>
+        <v>0.141112249730893</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -3720,7 +3720,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001092444</v>
+        <v>0.0117593541442411</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -3810,43 +3810,43 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004559329965725</v>
+        <v>0.073616738</v>
       </c>
       <c r="F2" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.073616737875</v>
+        <v>1.18864485468245</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0090675207691125</v>
+        <v>0.29254028775</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.19521035025</v>
+        <v>-6.29796098493003</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3904207005</v>
+        <v>-12.5959219698601</v>
       </c>
       <c r="K2" t="n">
-        <v>0.585080575375</v>
+        <v>20.4580036410118</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5114638375</v>
+        <v>19.2693587863294</v>
       </c>
       <c r="M2" t="n">
-        <v>0.874176752786885</v>
+        <v>0.941898296845563</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0852439729166667</v>
+        <v>3.21155979772157</v>
       </c>
       <c r="P2" t="n">
-        <v>0.145696125464481</v>
+        <v>0.156983049474261</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.218221321384203</v>
+        <v>0.387680893122047</v>
       </c>
     </row>
     <row r="3">
@@ -3863,43 +3863,43 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0135757115725</v>
+        <v>0.5114638375</v>
       </c>
       <c r="F3" t="n">
         <v>37.6749192680301</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5114638375</v>
+        <v>19.2693587863294</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00678785578625</v>
+        <v>0.25573191875</v>
       </c>
       <c r="I3" t="n">
-        <v>0.25573191875</v>
+        <v>9.6346793931647</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5114638375</v>
+        <v>19.2693587863294</v>
       </c>
       <c r="K3" t="n">
-        <v>0.585080575375</v>
+        <v>20.4580036410118</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5114638375</v>
+        <v>19.2693587863294</v>
       </c>
       <c r="M3" t="n">
-        <v>0.874176752786885</v>
+        <v>0.941898296845563</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0852439729166667</v>
+        <v>3.21155979772157</v>
       </c>
       <c r="P3" t="n">
-        <v>0.145696125464481</v>
+        <v>0.156983049474261</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.218221321384203</v>
+        <v>0.387680893122047</v>
       </c>
     </row>
   </sheetData>
@@ -3983,28 +3983,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0162951938034</v>
+        <v>0.175405746</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.175405746</v>
+        <v>1.88811351991389</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0081475969017</v>
+        <v>0.087702873</v>
       </c>
       <c r="I2" t="n">
-        <v>0.087702873</v>
+        <v>0.944056759956943</v>
       </c>
       <c r="J2" t="n">
-        <v>0.087702873</v>
+        <v>0.944056759956943</v>
       </c>
       <c r="K2" t="n">
-        <v>0.175405746</v>
+        <v>1.88811351991389</v>
       </c>
       <c r="L2" t="n">
-        <v>0.087702873</v>
+        <v>0.944056759956943</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -4013,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00730857275</v>
+        <v>0.0786713966630786</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -4103,28 +4103,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.010423351201</v>
+        <v>0.11219969</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.11219969</v>
+        <v>1.20774693218515</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0052116756005</v>
+        <v>0.056099845</v>
       </c>
       <c r="I2" t="n">
-        <v>0.056099845</v>
+        <v>0.603873466092573</v>
       </c>
       <c r="J2" t="n">
-        <v>0.056099845</v>
+        <v>0.603873466092573</v>
       </c>
       <c r="K2" t="n">
-        <v>0.11219969</v>
+        <v>1.20774693218515</v>
       </c>
       <c r="L2" t="n">
-        <v>0.056099845</v>
+        <v>0.603873466092573</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -4133,7 +4133,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00467498708333333</v>
+        <v>0.0503227888410477</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -4223,28 +4223,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1551038430216</v>
+        <v>1.669578504</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.669578504</v>
+        <v>17.9717815285253</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0775519215108</v>
+        <v>0.834789252</v>
       </c>
       <c r="I2" t="n">
-        <v>0.834789252</v>
+        <v>8.98589076426265</v>
       </c>
       <c r="J2" t="n">
-        <v>0.834789252</v>
+        <v>8.98589076426265</v>
       </c>
       <c r="K2" t="n">
-        <v>1.669578504</v>
+        <v>17.9717815285253</v>
       </c>
       <c r="L2" t="n">
-        <v>0.834789252</v>
+        <v>8.98589076426265</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -4253,7 +4253,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.069565771</v>
+        <v>0.748824230355221</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -4343,28 +4343,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0280853919015</v>
+        <v>0.302318535</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.906955605</v>
+        <v>9.76270834230355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03527521576875</v>
+        <v>0.3797116875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.759423375</v>
+        <v>8.17463266953714</v>
       </c>
       <c r="J2" t="n">
-        <v>2.278270125</v>
+        <v>24.5238980086114</v>
       </c>
       <c r="K2" t="n">
-        <v>2.148198097</v>
+        <v>23.1237685360603</v>
       </c>
       <c r="L2" t="n">
-        <v>3.454476603</v>
+        <v>37.1848934660926</v>
       </c>
       <c r="M2" t="n">
         <v>1.6080810274547</v>
@@ -4373,13 +4373,13 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.86361915075</v>
+        <v>9.29622336652315</v>
       </c>
       <c r="P2" t="n">
         <v>0.402020256863676</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0680788120213189</v>
+        <v>0.068078812021319</v>
       </c>
     </row>
     <row r="3">
@@ -4396,16 +4396,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.042465039636</v>
+        <v>0.45710484</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.45710484</v>
+        <v>4.92039655543595</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0576557137534</v>
+        <v>0.620621246</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4414,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.148198097</v>
+        <v>23.1237685360603</v>
       </c>
       <c r="L3" t="n">
-        <v>3.454476603</v>
+        <v>37.1848934660926</v>
       </c>
       <c r="M3" t="n">
         <v>1.6080810274547</v>
@@ -4426,13 +4426,13 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.86361915075</v>
+        <v>9.29622336652315</v>
       </c>
       <c r="P3" t="n">
         <v>0.402020256863676</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0680788120213189</v>
+        <v>0.068078812021319</v>
       </c>
     </row>
     <row r="4">
@@ -4449,28 +4449,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0728463878708</v>
+        <v>0.784137652</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.784137652</v>
+        <v>8.44066363832077</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0364231939354</v>
+        <v>0.392068826</v>
       </c>
       <c r="I4" t="n">
-        <v>0.392068826</v>
+        <v>4.22033181916039</v>
       </c>
       <c r="J4" t="n">
-        <v>1.176206478</v>
+        <v>12.6609954574812</v>
       </c>
       <c r="K4" t="n">
-        <v>2.148198097</v>
+        <v>23.1237685360603</v>
       </c>
       <c r="L4" t="n">
-        <v>3.454476603</v>
+        <v>37.1848934660926</v>
       </c>
       <c r="M4" t="n">
         <v>1.6080810274547</v>
@@ -4479,13 +4479,13 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.86361915075</v>
+        <v>9.29622336652315</v>
       </c>
       <c r="P4" t="n">
         <v>0.402020256863676</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0680788120213189</v>
+        <v>0.068078812021319</v>
       </c>
     </row>
   </sheetData>
@@ -4569,43 +4569,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0032182769162</v>
+        <v>0.034642378</v>
       </c>
       <c r="F2" t="n">
         <v>-2.69106566200215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.069284756</v>
+        <v>0.745799311087191</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00373127684469688</v>
+        <v>0.06015229203125</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0100411109921875</v>
+        <v>-0.161873767576023</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0301233329765625</v>
+        <v>-0.485621302728068</v>
       </c>
       <c r="K2" t="n">
-        <v>0.535744340359375</v>
+        <v>18.4788424934405</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5454974055</v>
+        <v>23.487509386437</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01820470027566</v>
+        <v>1.27104873558906</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.136374351375</v>
+        <v>5.87187734660926</v>
       </c>
       <c r="P2" t="n">
-        <v>0.254551175068916</v>
+        <v>0.317762183897266</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.107206761060893</v>
+        <v>0.261239467851992</v>
       </c>
     </row>
     <row r="3">
@@ -4622,43 +4622,43 @@
         <v>24.2195909580194</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00424427677319375</v>
+        <v>0.0856622060625</v>
       </c>
       <c r="F3" t="n">
         <v>-18.8374596340151</v>
       </c>
       <c r="G3" t="n">
-        <v>0.102794647359375</v>
+        <v>2.07470359139532</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00634519746750938</v>
+        <v>0.22466357153125</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.119527401164063</v>
+        <v>-4.23209095995358</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.358582203492188</v>
+        <v>-12.6962728798607</v>
       </c>
       <c r="K3" t="n">
-        <v>0.535744340359375</v>
+        <v>18.4788424934405</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5454974055</v>
+        <v>23.487509386437</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01820470027566</v>
+        <v>1.27104873558906</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.136374351375</v>
+        <v>5.87187734660926</v>
       </c>
       <c r="P3" t="n">
-        <v>0.254551175068916</v>
+        <v>0.317762183897266</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.107206761060893</v>
+        <v>0.261239467851992</v>
       </c>
     </row>
     <row r="4">
@@ -4675,43 +4675,43 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008446118161825</v>
+        <v>0.363664937</v>
       </c>
       <c r="F4" t="n">
         <v>43.0570505920345</v>
       </c>
       <c r="G4" t="n">
-        <v>0.363664937</v>
+        <v>15.658339590958</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0042230590809125</v>
+        <v>0.1818324685</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1818324685</v>
+        <v>7.82916979547901</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5454974055</v>
+        <v>23.487509386437</v>
       </c>
       <c r="K4" t="n">
-        <v>0.535744340359375</v>
+        <v>18.4788424934405</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5454974055</v>
+        <v>23.487509386437</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01820470027566</v>
+        <v>1.27104873558906</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.136374351375</v>
+        <v>5.87187734660926</v>
       </c>
       <c r="P4" t="n">
-        <v>0.254551175068916</v>
+        <v>0.317762183897266</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.107206761060893</v>
+        <v>0.261239467851992</v>
       </c>
     </row>
   </sheetData>
@@ -4795,43 +4795,43 @@
         <v>86.1141011840689</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007432</v>
+        <v>0.016</v>
       </c>
       <c r="F2" t="n">
         <v>-323.466092572659</v>
       </c>
       <c r="G2" t="n">
-        <v>0.064</v>
+        <v>1.3778256189451</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00213571076283003</v>
+        <v>0.184003019841667</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.690830015318002</v>
+        <v>-59.5187378497533</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.90830015318002</v>
+        <v>-595.187378497533</v>
       </c>
       <c r="K2" t="n">
-        <v>22.992897296479</v>
+        <v>1275.64247990975</v>
       </c>
       <c r="L2" t="n">
-        <v>120.55383232088</v>
+        <v>4886.1175480472</v>
       </c>
       <c r="M2" t="n">
-        <v>5.24309010588852</v>
+        <v>3.83031893731925</v>
       </c>
       <c r="N2" t="n">
         <v>1.2</v>
       </c>
       <c r="O2" t="n">
-        <v>100.461526934066</v>
+        <v>4071.76462337267</v>
       </c>
       <c r="P2" t="n">
-        <v>4.3692417549071</v>
+        <v>3.19193244776604</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0691587715903206</v>
+        <v>0.0565560955801397</v>
       </c>
     </row>
     <row r="3">
@@ -4848,43 +4848,43 @@
         <v>409.580193756728</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00352822152566006</v>
+        <v>0.352006039683333</v>
       </c>
       <c r="F3" t="n">
         <v>-155.184786508791</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44508965609651</v>
+        <v>144.174701937038</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00613289885065159</v>
+        <v>0.714204008447199</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.951732598818375</v>
+        <v>-110.833596574601</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.51732598818375</v>
+        <v>-1108.33596574601</v>
       </c>
       <c r="K3" t="n">
-        <v>22.992897296479</v>
+        <v>1275.64247990975</v>
       </c>
       <c r="L3" t="n">
-        <v>120.55383232088</v>
+        <v>4886.1175480472</v>
       </c>
       <c r="M3" t="n">
-        <v>5.24309010588852</v>
+        <v>3.83031893731925</v>
       </c>
       <c r="N3" t="n">
         <v>1.2</v>
       </c>
       <c r="O3" t="n">
-        <v>100.461526934066</v>
+        <v>4071.76462337267</v>
       </c>
       <c r="P3" t="n">
-        <v>4.3692417549071</v>
+        <v>3.19193244776604</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0691587715903206</v>
+        <v>0.0565560955801397</v>
       </c>
     </row>
     <row r="4">
@@ -4901,43 +4901,43 @@
         <v>564.764980265518</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00873757617564312</v>
+        <v>1.07640197721107</v>
       </c>
       <c r="F4" t="n">
         <v>278.076785073556</v>
       </c>
       <c r="G4" t="n">
-        <v>4.93467703640555</v>
+        <v>607.914141417372</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0126196252726455</v>
+        <v>0.94255794973751</v>
       </c>
       <c r="I4" t="n">
-        <v>3.50922482465025</v>
+        <v>262.103484408529</v>
       </c>
       <c r="J4" t="n">
-        <v>35.0922482465025</v>
+        <v>2621.03484408529</v>
       </c>
       <c r="K4" t="n">
-        <v>22.992897296479</v>
+        <v>1275.64247990975</v>
       </c>
       <c r="L4" t="n">
-        <v>120.55383232088</v>
+        <v>4886.1175480472</v>
       </c>
       <c r="M4" t="n">
-        <v>5.24309010588852</v>
+        <v>3.83031893731925</v>
       </c>
       <c r="N4" t="n">
         <v>1.2</v>
       </c>
       <c r="O4" t="n">
-        <v>100.461526934066</v>
+        <v>4071.76462337267</v>
       </c>
       <c r="P4" t="n">
-        <v>4.3692417549071</v>
+        <v>3.19193244776604</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0691587715903206</v>
+        <v>0.0565560955801397</v>
       </c>
     </row>
     <row r="5">
@@ -4954,43 +4954,43 @@
         <v>286.688195191963</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0165016743696478</v>
+        <v>0.808713922263956</v>
       </c>
       <c r="F5" t="n">
         <v>111.589522784356</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7308352426798</v>
+        <v>231.848734800467</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0220144592172765</v>
+        <v>0.836517087710116</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45658299841155</v>
+        <v>93.3465426185311</v>
       </c>
       <c r="J5" t="n">
-        <v>24.5658299841155</v>
+        <v>933.465426185311</v>
       </c>
       <c r="K5" t="n">
-        <v>22.992897296479</v>
+        <v>1275.64247990975</v>
       </c>
       <c r="L5" t="n">
-        <v>120.55383232088</v>
+        <v>4886.1175480472</v>
       </c>
       <c r="M5" t="n">
-        <v>5.24309010588852</v>
+        <v>3.83031893731925</v>
       </c>
       <c r="N5" t="n">
         <v>1.2</v>
       </c>
       <c r="O5" t="n">
-        <v>100.461526934066</v>
+        <v>4071.76462337267</v>
       </c>
       <c r="P5" t="n">
-        <v>4.3692417549071</v>
+        <v>3.19193244776604</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0691587715903206</v>
+        <v>0.0565560955801397</v>
       </c>
     </row>
     <row r="6">
@@ -5007,43 +5007,43 @@
         <v>175.098672407607</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0275272440649052</v>
+        <v>0.864320253156277</v>
       </c>
       <c r="F6" t="n">
         <v>82.5260136347327</v>
       </c>
       <c r="G6" t="n">
-        <v>4.81998389080508</v>
+        <v>151.341328862671</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0345942540967279</v>
+        <v>0.917428738644805</v>
       </c>
       <c r="I6" t="n">
-        <v>2.85492588526997</v>
+        <v>75.7117365942968</v>
       </c>
       <c r="J6" t="n">
-        <v>28.5492588526997</v>
+        <v>757.117365942968</v>
       </c>
       <c r="K6" t="n">
-        <v>22.992897296479</v>
+        <v>1275.64247990975</v>
       </c>
       <c r="L6" t="n">
-        <v>120.55383232088</v>
+        <v>4886.1175480472</v>
       </c>
       <c r="M6" t="n">
-        <v>5.24309010588852</v>
+        <v>3.83031893731925</v>
       </c>
       <c r="N6" t="n">
         <v>1.2</v>
       </c>
       <c r="O6" t="n">
-        <v>100.461526934066</v>
+        <v>4071.76462337267</v>
       </c>
       <c r="P6" t="n">
-        <v>4.3692417549071</v>
+        <v>3.19193244776604</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0691587715903206</v>
+        <v>0.0565560955801397</v>
       </c>
     </row>
     <row r="7">
@@ -5060,43 +5060,43 @@
         <v>92.5726587728741</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0416612641285505</v>
+        <v>0.970537224133333</v>
       </c>
       <c r="F7" t="n">
         <v>40.5453893074991</v>
       </c>
       <c r="G7" t="n">
-        <v>3.85669398821889</v>
+        <v>89.8452112760675</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0427665713681072</v>
+        <v>0.86865540815</v>
       </c>
       <c r="I7" t="n">
-        <v>1.73398728546685</v>
+        <v>35.2199716975063</v>
       </c>
       <c r="J7" t="n">
-        <v>17.3398728546685</v>
+        <v>352.199716975063</v>
       </c>
       <c r="K7" t="n">
-        <v>22.992897296479</v>
+        <v>1275.64247990975</v>
       </c>
       <c r="L7" t="n">
-        <v>120.55383232088</v>
+        <v>4886.1175480472</v>
       </c>
       <c r="M7" t="n">
-        <v>5.24309010588852</v>
+        <v>3.83031893731925</v>
       </c>
       <c r="N7" t="n">
         <v>1.2</v>
       </c>
       <c r="O7" t="n">
-        <v>100.461526934066</v>
+        <v>4071.76462337267</v>
       </c>
       <c r="P7" t="n">
-        <v>4.3692417549071</v>
+        <v>3.19193244776604</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0691587715903206</v>
+        <v>0.0565560955801397</v>
       </c>
     </row>
     <row r="8">
@@ -5113,43 +5113,43 @@
         <v>52.027269465375</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0438718786076639</v>
+        <v>0.766773592166667</v>
       </c>
       <c r="F8" t="n">
         <v>41.2630068173663</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28253405027315</v>
+        <v>39.8931362985887</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0320187251897819</v>
+        <v>0.491920551583333</v>
       </c>
       <c r="I8" t="n">
-        <v>1.32118887578935</v>
+        <v>20.2981210735857</v>
       </c>
       <c r="J8" t="n">
-        <v>13.2118887578935</v>
+        <v>202.981210735857</v>
       </c>
       <c r="K8" t="n">
-        <v>22.992897296479</v>
+        <v>1275.64247990975</v>
       </c>
       <c r="L8" t="n">
-        <v>120.55383232088</v>
+        <v>4886.1175480472</v>
       </c>
       <c r="M8" t="n">
-        <v>5.24309010588852</v>
+        <v>3.83031893731925</v>
       </c>
       <c r="N8" t="n">
         <v>1.2</v>
       </c>
       <c r="O8" t="n">
-        <v>100.461526934066</v>
+        <v>4071.76462337267</v>
       </c>
       <c r="P8" t="n">
-        <v>4.3692417549071</v>
+        <v>3.19193244776604</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0691587715903206</v>
+        <v>0.0565560955801397</v>
       </c>
     </row>
     <row r="9">
@@ -5166,16 +5166,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0201655717719</v>
+        <v>0.217067511</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.217067511</v>
+        <v>2.3365717007535</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02323135004015</v>
+        <v>0.2500683535</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5184,25 +5184,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>22.992897296479</v>
+        <v>1275.64247990975</v>
       </c>
       <c r="L9" t="n">
-        <v>120.55383232088</v>
+        <v>4886.1175480472</v>
       </c>
       <c r="M9" t="n">
-        <v>5.24309010588852</v>
+        <v>3.83031893731925</v>
       </c>
       <c r="N9" t="n">
         <v>1.2</v>
       </c>
       <c r="O9" t="n">
-        <v>100.461526934066</v>
+        <v>4071.76462337267</v>
       </c>
       <c r="P9" t="n">
-        <v>4.3692417549071</v>
+        <v>3.19193244776604</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0691587715903206</v>
+        <v>0.0565560955801397</v>
       </c>
     </row>
     <row r="10">
@@ -5219,16 +5219,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0262971283084</v>
+        <v>0.283069196</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.283069196</v>
+        <v>3.04703117330463</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02982163953045</v>
+        <v>0.3210079605</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5237,25 +5237,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.992897296479</v>
+        <v>1275.64247990975</v>
       </c>
       <c r="L10" t="n">
-        <v>120.55383232088</v>
+        <v>4886.1175480472</v>
       </c>
       <c r="M10" t="n">
-        <v>5.24309010588852</v>
+        <v>3.83031893731925</v>
       </c>
       <c r="N10" t="n">
         <v>1.2</v>
       </c>
       <c r="O10" t="n">
-        <v>100.461526934066</v>
+        <v>4071.76462337267</v>
       </c>
       <c r="P10" t="n">
-        <v>4.3692417549071</v>
+        <v>3.19193244776604</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0691587715903206</v>
+        <v>0.0565560955801397</v>
       </c>
     </row>
     <row r="11">
@@ -5272,43 +5272,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0333461507525</v>
+        <v>0.358946725</v>
       </c>
       <c r="F11" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G11" t="n">
-        <v>0.358946725</v>
+        <v>3.86379682454252</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01667307537625</v>
+        <v>0.1794733625</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1794733625</v>
+        <v>1.93189841227126</v>
       </c>
       <c r="J11" t="n">
-        <v>1.794733625</v>
+        <v>19.3189841227126</v>
       </c>
       <c r="K11" t="n">
-        <v>22.992897296479</v>
+        <v>1275.64247990975</v>
       </c>
       <c r="L11" t="n">
-        <v>120.55383232088</v>
+        <v>4886.1175480472</v>
       </c>
       <c r="M11" t="n">
-        <v>5.24309010588852</v>
+        <v>3.83031893731925</v>
       </c>
       <c r="N11" t="n">
         <v>1.2</v>
       </c>
       <c r="O11" t="n">
-        <v>100.461526934066</v>
+        <v>4071.76462337267</v>
       </c>
       <c r="P11" t="n">
-        <v>4.3692417549071</v>
+        <v>3.19193244776604</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0691587715903206</v>
+        <v>0.0565560955801397</v>
       </c>
     </row>
   </sheetData>
@@ -5392,43 +5392,43 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00128202</v>
+        <v>0.0322</v>
       </c>
       <c r="F2" t="n">
         <v>-0.0000000000000035527136788005</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0322</v>
+        <v>0.80875493362038</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0081739799443</v>
+        <v>0.110701344833333</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0000000000000000290398103583556</v>
+        <v>-0.000000000000000393290182050995</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0000000000000000871194310750667</v>
+        <v>-0.00000000000000117987054615298</v>
       </c>
       <c r="K2" t="n">
-        <v>0.791388087111111</v>
+        <v>12.3922941011841</v>
       </c>
       <c r="L2" t="n">
-        <v>0.961817420333333</v>
+        <v>16.3825852152853</v>
       </c>
       <c r="M2" t="n">
-        <v>1.21535493899631</v>
+        <v>1.32199777390047</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.240454355083333</v>
+        <v>4.09564630382131</v>
       </c>
       <c r="P2" t="n">
-        <v>0.303838734749078</v>
+        <v>0.330499443475117</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.467789112618259</v>
+        <v>0.41171040646609</v>
       </c>
     </row>
     <row r="3">
@@ -5445,43 +5445,43 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0150659398886</v>
+        <v>0.189202689666667</v>
       </c>
       <c r="F3" t="n">
         <v>7.17617509867241</v>
       </c>
       <c r="G3" t="n">
-        <v>0.378405379333333</v>
+        <v>4.75213070565722</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0181453840100667</v>
+        <v>0.284992698666667</v>
       </c>
       <c r="I3" t="n">
-        <v>0.130214452888889</v>
+        <v>2.04515750747518</v>
       </c>
       <c r="J3" t="n">
-        <v>0.390643358666667</v>
+        <v>6.13547252242555</v>
       </c>
       <c r="K3" t="n">
-        <v>0.791388087111111</v>
+        <v>12.3922941011841</v>
       </c>
       <c r="L3" t="n">
-        <v>0.961817420333333</v>
+        <v>16.3825852152853</v>
       </c>
       <c r="M3" t="n">
-        <v>1.21535493899631</v>
+        <v>1.32199777390047</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.240454355083333</v>
+        <v>4.09564630382131</v>
       </c>
       <c r="P3" t="n">
-        <v>0.303838734749078</v>
+        <v>0.330499443475117</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.467789112618259</v>
+        <v>0.41171040646609</v>
       </c>
     </row>
     <row r="4">
@@ -5498,43 +5498,43 @@
         <v>17.940437746681</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0212248281315333</v>
+        <v>0.380782707666667</v>
       </c>
       <c r="F4" t="n">
         <v>17.940437746681</v>
       </c>
       <c r="G4" t="n">
-        <v>0.380782707777778</v>
+        <v>6.83140846190647</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0106124140657667</v>
+        <v>0.190391353833333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.190391353888889</v>
+        <v>3.41570423095324</v>
       </c>
       <c r="J4" t="n">
-        <v>0.571174061666667</v>
+        <v>10.2471126928597</v>
       </c>
       <c r="K4" t="n">
-        <v>0.791388087111111</v>
+        <v>12.3922941011841</v>
       </c>
       <c r="L4" t="n">
-        <v>0.961817420333333</v>
+        <v>16.3825852152853</v>
       </c>
       <c r="M4" t="n">
-        <v>1.21535493899631</v>
+        <v>1.32199777390047</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.240454355083333</v>
+        <v>4.09564630382131</v>
       </c>
       <c r="P4" t="n">
-        <v>0.303838734749078</v>
+        <v>0.330499443475117</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.467789112618259</v>
+        <v>0.41171040646609</v>
       </c>
     </row>
   </sheetData>
@@ -5618,43 +5618,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003716</v>
+        <v>0.00533333333333333</v>
       </c>
       <c r="F2" t="n">
         <v>-105.489773950484</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008</v>
+        <v>0.114818801578759</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00122741519880818</v>
+        <v>0.0855216796664502</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.129479751865663</v>
+        <v>-9.02166265587957</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.77687851119398</v>
+        <v>-54.1299759352774</v>
       </c>
       <c r="K2" t="n">
-        <v>3.17808335306729</v>
+        <v>198.905250114187</v>
       </c>
       <c r="L2" t="n">
-        <v>13.7468750907024</v>
+        <v>618.845274687441</v>
       </c>
       <c r="M2" t="n">
-        <v>4.32552377124872</v>
+        <v>3.1112566125438</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>6.87343754535119</v>
+        <v>309.42263734372</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16276188562436</v>
+        <v>1.5556283062719</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.212195514219055</v>
+        <v>0.198496367911827</v>
       </c>
     </row>
     <row r="3">
@@ -5671,43 +5671,43 @@
         <v>127.018299246502</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00208323039761635</v>
+        <v>0.165710025999567</v>
       </c>
       <c r="F3" t="n">
         <v>-43.0570505920344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.264608382043842</v>
+        <v>21.0482056705586</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00389687920405451</v>
+        <v>0.353786100966586</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.167788125040022</v>
+        <v>-15.2329860480769</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.00672875024013</v>
+        <v>-91.3979162884613</v>
       </c>
       <c r="K3" t="n">
-        <v>3.17808335306729</v>
+        <v>198.905250114187</v>
       </c>
       <c r="L3" t="n">
-        <v>13.7468750907024</v>
+        <v>618.845274687441</v>
       </c>
       <c r="M3" t="n">
-        <v>4.32552377124872</v>
+        <v>3.1112566125438</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>6.87343754535119</v>
+        <v>309.42263734372</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16276188562436</v>
+        <v>1.5556283062719</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.212195514219055</v>
+        <v>0.198496367911827</v>
       </c>
     </row>
     <row r="4">
@@ -5724,43 +5724,43 @@
         <v>170.075349838536</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00571052801049267</v>
+        <v>0.541862175933605</v>
       </c>
       <c r="F4" t="n">
         <v>83.9612486544672</v>
       </c>
       <c r="G4" t="n">
-        <v>0.971220049147299</v>
+        <v>92.1573991361782</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00869467317996566</v>
+        <v>0.648997059192905</v>
       </c>
       <c r="I4" t="n">
-        <v>0.730015616832424</v>
+        <v>54.4906034629135</v>
       </c>
       <c r="J4" t="n">
-        <v>4.38009370099454</v>
+        <v>326.943620777481</v>
       </c>
       <c r="K4" t="n">
-        <v>3.17808335306729</v>
+        <v>198.905250114187</v>
       </c>
       <c r="L4" t="n">
-        <v>13.7468750907024</v>
+        <v>618.845274687441</v>
       </c>
       <c r="M4" t="n">
-        <v>4.32552377124872</v>
+        <v>3.1112566125438</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>6.87343754535119</v>
+        <v>309.42263734372</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16276188562436</v>
+        <v>1.5556283062719</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.212195514219055</v>
+        <v>0.198496367911827</v>
       </c>
     </row>
     <row r="5">
@@ -5777,43 +5777,43 @@
         <v>86.1141011840689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0116788183494387</v>
+        <v>0.756131942452206</v>
       </c>
       <c r="F5" t="n">
         <v>57.4094007893792</v>
       </c>
       <c r="G5" t="n">
-        <v>1.00571094505392</v>
+        <v>65.1136226008358</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0160108882668727</v>
+        <v>0.670035231059436</v>
       </c>
       <c r="I5" t="n">
-        <v>0.919175501506862</v>
+        <v>38.4663211228955</v>
       </c>
       <c r="J5" t="n">
-        <v>5.51505300904117</v>
+        <v>230.797926737373</v>
       </c>
       <c r="K5" t="n">
-        <v>3.17808335306729</v>
+        <v>198.905250114187</v>
       </c>
       <c r="L5" t="n">
-        <v>13.7468750907024</v>
+        <v>618.845274687441</v>
       </c>
       <c r="M5" t="n">
-        <v>4.32552377124872</v>
+        <v>3.1112566125438</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>6.87343754535119</v>
+        <v>309.42263734372</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16276188562436</v>
+        <v>1.5556283062719</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.212195514219055</v>
+        <v>0.198496367911827</v>
       </c>
     </row>
     <row r="6">
@@ -5830,43 +5830,43 @@
         <v>28.7047003946896</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0203429581843067</v>
+        <v>0.583938519666667</v>
       </c>
       <c r="F6" t="n">
         <v>17.940437746681</v>
       </c>
       <c r="G6" t="n">
-        <v>0.583938519822222</v>
+        <v>16.7617802559502</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0261784025698033</v>
+        <v>0.464271988333333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.469652001611111</v>
+        <v>8.32924270422198</v>
       </c>
       <c r="J6" t="n">
-        <v>2.81791200966667</v>
+        <v>49.9754562253319</v>
       </c>
       <c r="K6" t="n">
-        <v>3.17808335306729</v>
+        <v>198.905250114187</v>
       </c>
       <c r="L6" t="n">
-        <v>13.7468750907024</v>
+        <v>618.845274687441</v>
       </c>
       <c r="M6" t="n">
-        <v>4.32552377124872</v>
+        <v>3.1112566125438</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>6.87343754535119</v>
+        <v>309.42263734372</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16276188562436</v>
+        <v>1.5556283062719</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.212195514219055</v>
+        <v>0.198496367911827</v>
       </c>
     </row>
     <row r="7">
@@ -5883,43 +5883,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0320138469553</v>
+        <v>0.344605457</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>0.344605457</v>
+        <v>3.70942364908504</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01600692347765</v>
+        <v>0.1723027285</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1723027285</v>
+        <v>1.85471182454252</v>
       </c>
       <c r="J7" t="n">
-        <v>1.033816371</v>
+        <v>11.1282709472551</v>
       </c>
       <c r="K7" t="n">
-        <v>3.17808335306729</v>
+        <v>198.905250114187</v>
       </c>
       <c r="L7" t="n">
-        <v>13.7468750907024</v>
+        <v>618.845274687441</v>
       </c>
       <c r="M7" t="n">
-        <v>4.32552377124872</v>
+        <v>3.1112566125438</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>6.87343754535119</v>
+        <v>309.42263734372</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16276188562436</v>
+        <v>1.5556283062719</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.212195514219055</v>
+        <v>0.198496367911827</v>
       </c>
     </row>
   </sheetData>
@@ -6003,28 +6003,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00844611816647</v>
+        <v>0.0909162343</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0909162343</v>
+        <v>0.978646224973089</v>
       </c>
       <c r="H2" t="n">
-        <v>0.016475712080735</v>
+        <v>0.17734889215</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.17734889215</v>
+        <v>-1.90903005543595</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3546977843</v>
+        <v>-3.81806011087191</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6184793343</v>
+        <v>6.65747399677072</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5275631</v>
+        <v>5.67882777179763</v>
       </c>
       <c r="M2" t="n">
         <v>0.853000368390805</v>
@@ -6033,7 +6033,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0879271833333333</v>
+        <v>0.946471295299605</v>
       </c>
       <c r="P2" t="n">
         <v>0.142166728065134</v>
@@ -6056,28 +6056,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.024505305995</v>
+        <v>0.26378155</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5275631</v>
+        <v>5.67882777179763</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0122526529975</v>
+        <v>0.131890775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.26378155</v>
+        <v>2.83941388589882</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5275631</v>
+        <v>5.67882777179763</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6184793343</v>
+        <v>6.65747399677072</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5275631</v>
+        <v>5.67882777179763</v>
       </c>
       <c r="M3" t="n">
         <v>0.853000368390805</v>
@@ -6086,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0879271833333333</v>
+        <v>0.946471295299605</v>
       </c>
       <c r="P3" t="n">
         <v>0.142166728065134</v>
@@ -6176,43 +6176,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00011148</v>
+        <v>0.0024</v>
       </c>
       <c r="F2" t="n">
         <v>-4.30570505920345</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0024</v>
+        <v>0.0516684607104413</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000564429356690833</v>
+        <v>0.014341598</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00243026633666667</v>
+        <v>-0.061750691065662</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00972106534666667</v>
+        <v>-0.247002764262648</v>
       </c>
       <c r="K2" t="n">
-        <v>0.308410686595556</v>
+        <v>6.17983922210262</v>
       </c>
       <c r="L2" t="n">
-        <v>0.440469835257778</v>
+        <v>9.29120626336563</v>
       </c>
       <c r="M2" t="n">
-        <v>1.42819251861853</v>
+        <v>1.50347054825229</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.146823278419259</v>
+        <v>3.09706875445521</v>
       </c>
       <c r="P2" t="n">
-        <v>0.476064172872845</v>
+        <v>0.50115684941743</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.442227900976957</v>
+        <v>0.442227901032544</v>
       </c>
     </row>
     <row r="3">
@@ -6229,43 +6229,43 @@
         <v>25.8342303552207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00101737871338167</v>
+        <v>0.026283196</v>
       </c>
       <c r="F3" t="n">
         <v>4.30570505920344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02628319604</v>
+        <v>0.679006139935414</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00236300545364083</v>
+        <v>0.039755392</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0101744045366667</v>
+        <v>0.171174992465016</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0406976181466666</v>
+        <v>0.684699969860064</v>
       </c>
       <c r="K3" t="n">
-        <v>0.308410686595556</v>
+        <v>6.17983922210262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.440469835257778</v>
+        <v>9.29120626336563</v>
       </c>
       <c r="M3" t="n">
-        <v>1.42819251861853</v>
+        <v>1.50347054825229</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.146823278419259</v>
+        <v>3.09706875445521</v>
       </c>
       <c r="P3" t="n">
-        <v>0.476064172872845</v>
+        <v>0.50115684941743</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.442227900976957</v>
+        <v>0.442227901032544</v>
       </c>
     </row>
     <row r="4">
@@ -6282,43 +6282,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0037086321939</v>
+        <v>0.053227588</v>
       </c>
       <c r="F4" t="n">
         <v>0.0000000000000035527136788005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.079841382</v>
+        <v>1.14591147470398</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00649667096815278</v>
+        <v>0.126556848333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0000000000000000230808118152225</v>
+        <v>0.000000000000000449620246219714</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000000000000000923232472608899</v>
+        <v>0.00000000000000179848098487885</v>
       </c>
       <c r="K4" t="n">
-        <v>0.308410686595556</v>
+        <v>6.17983922210262</v>
       </c>
       <c r="L4" t="n">
-        <v>0.440469835257778</v>
+        <v>9.29120626336563</v>
       </c>
       <c r="M4" t="n">
-        <v>1.42819251861853</v>
+        <v>1.50347054825229</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.146823278419259</v>
+        <v>3.09706875445521</v>
       </c>
       <c r="P4" t="n">
-        <v>0.476064172872845</v>
+        <v>0.50115684941743</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.442227900976957</v>
+        <v>0.442227901032544</v>
       </c>
     </row>
     <row r="5">
@@ -6335,43 +6335,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00928470974240556</v>
+        <v>0.199886108666667</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.199886108555556</v>
+        <v>4.30325314675278</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00464235487120278</v>
+        <v>0.0999430543333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0999430542777778</v>
+        <v>2.15162657337639</v>
       </c>
       <c r="J5" t="n">
-        <v>0.399772217111111</v>
+        <v>8.60650629350556</v>
       </c>
       <c r="K5" t="n">
-        <v>0.308410686595556</v>
+        <v>6.17983922210262</v>
       </c>
       <c r="L5" t="n">
-        <v>0.440469835257778</v>
+        <v>9.29120626336563</v>
       </c>
       <c r="M5" t="n">
-        <v>1.42819251861853</v>
+        <v>1.50347054825229</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.146823278419259</v>
+        <v>3.09706875445521</v>
       </c>
       <c r="P5" t="n">
-        <v>0.476064172872845</v>
+        <v>0.50115684941743</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.442227900976957</v>
+        <v>0.442227901032544</v>
       </c>
     </row>
   </sheetData>
@@ -6455,43 +6455,43 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000331686852450333</v>
+        <v>0.0714072879</v>
       </c>
       <c r="F2" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0142814575866667</v>
+        <v>3.07458720775027</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000473308092707667</v>
+        <v>0.0687999482</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01528443787</v>
+        <v>2.22174213778256</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07642218935</v>
+        <v>11.1087106889128</v>
       </c>
       <c r="K2" t="n">
-        <v>10.0855287643767</v>
+        <v>1087.17009924112</v>
       </c>
       <c r="L2" t="n">
-        <v>25.15412716015</v>
+        <v>2710.53873983854</v>
       </c>
       <c r="M2" t="n">
-        <v>2.49408114812953</v>
+        <v>2.49320574740842</v>
       </c>
       <c r="N2" t="n">
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>10.4808863167292</v>
+        <v>1129.39114159939</v>
       </c>
       <c r="P2" t="n">
-        <v>1.03920047838731</v>
+        <v>1.03883572808684</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.153652668776423</v>
+        <v>0.140061547598126</v>
       </c>
     </row>
     <row r="3">
@@ -6508,43 +6508,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000614929332965</v>
+        <v>0.0661926085</v>
       </c>
       <c r="F3" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00661926085</v>
+        <v>0.712514623250807</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0018656790429315</v>
+        <v>0.20082659235</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.020082659235</v>
+        <v>-2.16175018675996</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.100413296175</v>
+        <v>-10.8087509337998</v>
       </c>
       <c r="K3" t="n">
-        <v>10.0855287643767</v>
+        <v>1087.17009924112</v>
       </c>
       <c r="L3" t="n">
-        <v>25.15412716015</v>
+        <v>2710.53873983854</v>
       </c>
       <c r="M3" t="n">
-        <v>2.49408114812953</v>
+        <v>2.49320574740842</v>
       </c>
       <c r="N3" t="n">
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>10.4808863167292</v>
+        <v>1129.39114159939</v>
       </c>
       <c r="P3" t="n">
-        <v>1.03920047838731</v>
+        <v>1.03883572808684</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.153652668776423</v>
+        <v>0.140061547598126</v>
       </c>
     </row>
     <row r="4">
@@ -6561,43 +6561,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003116428752898</v>
+        <v>0.3354605762</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06709211524</v>
+        <v>7.22197150053821</v>
       </c>
       <c r="H4" t="n">
-        <v>0.046229158413564</v>
+        <v>4.9762280316</v>
       </c>
       <c r="I4" t="n">
-        <v>0.49762280316</v>
+        <v>53.5654255285253</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4881140158</v>
+        <v>267.827127642627</v>
       </c>
       <c r="K4" t="n">
-        <v>10.0855287643767</v>
+        <v>1087.17009924112</v>
       </c>
       <c r="L4" t="n">
-        <v>25.15412716015</v>
+        <v>2710.53873983854</v>
       </c>
       <c r="M4" t="n">
-        <v>2.49408114812953</v>
+        <v>2.49320574740842</v>
       </c>
       <c r="N4" t="n">
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>10.4808863167292</v>
+        <v>1129.39114159939</v>
       </c>
       <c r="P4" t="n">
-        <v>1.03920047838731</v>
+        <v>1.03883572808684</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.153652668776423</v>
+        <v>0.140061547598126</v>
       </c>
     </row>
     <row r="5">
@@ -6614,16 +6614,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08934188807423</v>
+        <v>9.616995487</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9616995487</v>
+        <v>103.519865306781</v>
       </c>
       <c r="H5" t="n">
-        <v>0.464385543981015</v>
+        <v>49.9876796535</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6632,25 +6632,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>10.0855287643767</v>
+        <v>1087.17009924112</v>
       </c>
       <c r="L5" t="n">
-        <v>25.15412716015</v>
+        <v>2710.53873983854</v>
       </c>
       <c r="M5" t="n">
-        <v>2.49408114812953</v>
+        <v>2.49320574740842</v>
       </c>
       <c r="N5" t="n">
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>10.4808863167292</v>
+        <v>1129.39114159939</v>
       </c>
       <c r="P5" t="n">
-        <v>1.03920047838731</v>
+        <v>1.03883572808684</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.153652668776423</v>
+        <v>0.140061547598126</v>
       </c>
     </row>
     <row r="6">
@@ -6667,43 +6667,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8394291998878</v>
+        <v>90.35836382</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>9.035836382</v>
+        <v>972.641160602799</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4197145999439</v>
+        <v>45.17918191</v>
       </c>
       <c r="I6" t="n">
-        <v>4.517918191</v>
+        <v>486.320580301399</v>
       </c>
       <c r="J6" t="n">
-        <v>22.589590955</v>
+        <v>2431.602901507</v>
       </c>
       <c r="K6" t="n">
-        <v>10.0855287643767</v>
+        <v>1087.17009924112</v>
       </c>
       <c r="L6" t="n">
-        <v>25.15412716015</v>
+        <v>2710.53873983854</v>
       </c>
       <c r="M6" t="n">
-        <v>2.49408114812953</v>
+        <v>2.49320574740842</v>
       </c>
       <c r="N6" t="n">
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>10.4808863167292</v>
+        <v>1129.39114159939</v>
       </c>
       <c r="P6" t="n">
-        <v>1.03920047838731</v>
+        <v>1.03883572808684</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.153652668776423</v>
+        <v>0.140061547598126</v>
       </c>
     </row>
   </sheetData>
@@ -6787,43 +6787,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0092180417038</v>
+        <v>0.099225422</v>
       </c>
       <c r="F2" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.099225422</v>
+        <v>1.06808850376749</v>
       </c>
       <c r="H2" t="n">
-        <v>0.014439447459855</v>
+        <v>0.36706459275</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3108600099</v>
+        <v>-7.90235937029064</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.5543000495</v>
+        <v>-39.5117968514532</v>
       </c>
       <c r="K2" t="n">
-        <v>8.14139146272083</v>
+        <v>362.680349205089</v>
       </c>
       <c r="L2" t="n">
-        <v>13.5205214421667</v>
+        <v>666.954520413228</v>
       </c>
       <c r="M2" t="n">
-        <v>1.660713835476</v>
+        <v>1.83895962898193</v>
       </c>
       <c r="N2" t="n">
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>5.63355060090278</v>
+        <v>277.897716838845</v>
       </c>
       <c r="P2" t="n">
-        <v>0.691964098115</v>
+        <v>0.766233178742472</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.089237410523574</v>
+        <v>0.153614927020938</v>
       </c>
     </row>
     <row r="3">
@@ -6840,43 +6840,43 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01966085321591</v>
+        <v>0.6349037635</v>
       </c>
       <c r="F3" t="n">
         <v>14.3523501973448</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6349037637</v>
+        <v>20.5028125995694</v>
       </c>
       <c r="H3" t="n">
-        <v>0.027520776771905</v>
+        <v>0.634824507583333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.394987825933333</v>
+        <v>9.11122364669298</v>
       </c>
       <c r="J3" t="n">
-        <v>1.97493912966667</v>
+        <v>45.5561182334649</v>
       </c>
       <c r="K3" t="n">
-        <v>8.14139146272083</v>
+        <v>362.680349205089</v>
       </c>
       <c r="L3" t="n">
-        <v>13.5205214421667</v>
+        <v>666.954520413228</v>
       </c>
       <c r="M3" t="n">
-        <v>1.660713835476</v>
+        <v>1.83895962898193</v>
       </c>
       <c r="N3" t="n">
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>5.63355060090278</v>
+        <v>277.897716838845</v>
       </c>
       <c r="P3" t="n">
-        <v>0.691964098115</v>
+        <v>0.766233178742472</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.089237410523574</v>
+        <v>0.153614927020938</v>
       </c>
     </row>
     <row r="4">
@@ -6893,43 +6893,43 @@
         <v>17.940437746681</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0353807003279</v>
+        <v>0.634745251666667</v>
       </c>
       <c r="F4" t="n">
         <v>-19.7344815213491</v>
       </c>
       <c r="G4" t="n">
-        <v>0.634745251666667</v>
+        <v>11.3876076725272</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0462807777243646</v>
+        <v>1.39451467595833</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.913327152795139</v>
+        <v>-27.5200241039499</v>
       </c>
       <c r="J4" t="n">
-        <v>-4.56663576397569</v>
+        <v>-137.600120519749</v>
       </c>
       <c r="K4" t="n">
-        <v>8.14139146272083</v>
+        <v>362.680349205089</v>
       </c>
       <c r="L4" t="n">
-        <v>13.5205214421667</v>
+        <v>666.954520413228</v>
       </c>
       <c r="M4" t="n">
-        <v>1.660713835476</v>
+        <v>1.83895962898193</v>
       </c>
       <c r="N4" t="n">
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>5.63355060090278</v>
+        <v>277.897716838845</v>
       </c>
       <c r="P4" t="n">
-        <v>0.691964098115</v>
+        <v>0.766233178742472</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.089237410523574</v>
+        <v>0.153614927020938</v>
       </c>
     </row>
     <row r="5">
@@ -6946,43 +6946,43 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0571808551208292</v>
+        <v>2.15428410025</v>
       </c>
       <c r="F5" t="n">
         <v>-16.1463939720129</v>
       </c>
       <c r="G5" t="n">
-        <v>2.15428410035417</v>
+        <v>81.1624795573197</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0714938114336646</v>
+        <v>3.386258512625</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.15436724596875</v>
+        <v>-54.6758640359257</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.77183622984375</v>
+        <v>-273.379320179629</v>
       </c>
       <c r="K5" t="n">
-        <v>8.14139146272083</v>
+        <v>362.680349205089</v>
       </c>
       <c r="L5" t="n">
-        <v>13.5205214421667</v>
+        <v>666.954520413228</v>
       </c>
       <c r="M5" t="n">
-        <v>1.660713835476</v>
+        <v>1.83895962898193</v>
       </c>
       <c r="N5" t="n">
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>5.63355060090278</v>
+        <v>277.897716838845</v>
       </c>
       <c r="P5" t="n">
-        <v>0.691964098115</v>
+        <v>0.766233178742472</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.089237410523574</v>
+        <v>0.153614927020938</v>
       </c>
     </row>
     <row r="6">
@@ -6999,43 +6999,43 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0858067677465</v>
+        <v>4.618232925</v>
       </c>
       <c r="F6" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G6" t="n">
-        <v>4.618232925</v>
+        <v>248.559360871905</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04290338387325</v>
+        <v>2.3091164625</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3091164625</v>
+        <v>124.279680435953</v>
       </c>
       <c r="J6" t="n">
-        <v>11.5455823125</v>
+        <v>621.398402179763</v>
       </c>
       <c r="K6" t="n">
-        <v>8.14139146272083</v>
+        <v>362.680349205089</v>
       </c>
       <c r="L6" t="n">
-        <v>13.5205214421667</v>
+        <v>666.954520413228</v>
       </c>
       <c r="M6" t="n">
-        <v>1.660713835476</v>
+        <v>1.83895962898193</v>
       </c>
       <c r="N6" t="n">
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>5.63355060090278</v>
+        <v>277.897716838845</v>
       </c>
       <c r="P6" t="n">
-        <v>0.691964098115</v>
+        <v>0.766233178742472</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.089237410523574</v>
+        <v>0.153614927020938</v>
       </c>
     </row>
   </sheetData>
@@ -7119,16 +7119,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0389265033474</v>
+        <v>0.419015106</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.419015106</v>
+        <v>4.51038865446717</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0564977926391</v>
+        <v>0.608157079</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -7137,10 +7137,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.216314158</v>
+        <v>13.0927250592034</v>
       </c>
       <c r="L2" t="n">
-        <v>0.797299052</v>
+        <v>8.58233640473628</v>
       </c>
       <c r="M2" t="n">
         <v>0.655504210615297</v>
@@ -7149,7 +7149,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.132883175333333</v>
+        <v>1.43038940078938</v>
       </c>
       <c r="P2" t="n">
         <v>0.109250701769216</v>
@@ -7172,28 +7172,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0740690819308</v>
+        <v>0.797299052</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.797299052</v>
+        <v>8.58233640473628</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0370345409654</v>
+        <v>0.398649526</v>
       </c>
       <c r="I3" t="n">
-        <v>0.398649526</v>
+        <v>4.29116820236814</v>
       </c>
       <c r="J3" t="n">
-        <v>0.797299052</v>
+        <v>8.58233640473628</v>
       </c>
       <c r="K3" t="n">
-        <v>1.216314158</v>
+        <v>13.0927250592034</v>
       </c>
       <c r="L3" t="n">
-        <v>0.797299052</v>
+        <v>8.58233640473628</v>
       </c>
       <c r="M3" t="n">
         <v>0.655504210615297</v>
@@ -7202,7 +7202,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.132883175333333</v>
+        <v>1.43038940078938</v>
       </c>
       <c r="P3" t="n">
         <v>0.109250701769216</v>
@@ -7292,28 +7292,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0005032157963</v>
+        <v>0.005416747</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005416747</v>
+        <v>0.0583072874058127</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00025160789815</v>
+        <v>0.0027083735</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0027083735</v>
+        <v>0.0291536437029064</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0027083735</v>
+        <v>0.0291536437029064</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005416747</v>
+        <v>0.0583072874058127</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0027083735</v>
+        <v>0.0291536437029064</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -7322,7 +7322,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000225697791666667</v>
+        <v>0.00242947030857553</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -7412,28 +7412,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0362255011561</v>
+        <v>0.389940809</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.389940809</v>
+        <v>4.19742528525296</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01811275057805</v>
+        <v>0.1949704045</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1949704045</v>
+        <v>2.09871264262648</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1949704045</v>
+        <v>2.09871264262648</v>
       </c>
       <c r="K2" t="n">
-        <v>0.389940809</v>
+        <v>4.19742528525296</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1949704045</v>
+        <v>2.09871264262648</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -7442,7 +7442,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0162475337083333</v>
+        <v>0.174892720218873</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -7532,43 +7532,43 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02805056513145</v>
+        <v>0.452915476</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9058309515</v>
+        <v>14.6259034230355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.042651217948025</v>
+        <v>0.534594825</v>
       </c>
       <c r="I2" t="n">
-        <v>0.45910891225</v>
+        <v>5.7545191065662</v>
       </c>
       <c r="J2" t="n">
-        <v>5.05019803475</v>
+        <v>63.2997101722282</v>
       </c>
       <c r="K2" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L2" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M2" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N2" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O2" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P2" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
     <row r="3">
@@ -7585,16 +7585,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0572518707646</v>
+        <v>0.616274174</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.232548348</v>
+        <v>13.2674741442411</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0784107070405</v>
+        <v>0.844033445</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -7603,25 +7603,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L3" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M3" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N3" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O3" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P3" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
     <row r="4">
@@ -7638,43 +7638,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0995695433164</v>
+        <v>1.071792716</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>2.143585432</v>
+        <v>23.074116598493</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08890811974725</v>
+        <v>0.9570303525</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9570303525</v>
+        <v>10.3017260764263</v>
       </c>
       <c r="J4" t="n">
-        <v>10.5273338775</v>
+        <v>113.318986840689</v>
       </c>
       <c r="K4" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L4" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M4" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N4" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O4" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P4" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
     <row r="5">
@@ -7691,16 +7691,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0782466961781</v>
+        <v>0.842267989</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.842267989</v>
+        <v>9.06639385360603</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09646418825465</v>
+        <v>1.0383658585</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -7709,25 +7709,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L5" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M5" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N5" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O5" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P5" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
     <row r="6">
@@ -7744,43 +7744,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1146816803312</v>
+        <v>1.234463728</v>
       </c>
       <c r="F6" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>1.234463728</v>
+        <v>13.2880917976319</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2170442086372</v>
+        <v>2.336320868</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.336320868</v>
+        <v>-25.1487714531755</v>
       </c>
       <c r="J6" t="n">
-        <v>-25.699529548</v>
+        <v>-276.63648598493</v>
       </c>
       <c r="K6" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L6" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M6" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N6" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O6" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P6" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
     <row r="7">
@@ -7797,43 +7797,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3194067369432</v>
+        <v>3.438178008</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>6.876356016</v>
+        <v>74.0189022174381</v>
       </c>
       <c r="H7" t="n">
-        <v>0.33560698643565</v>
+        <v>3.6125617485</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6125617485</v>
+        <v>38.8865634930032</v>
       </c>
       <c r="J7" t="n">
-        <v>39.7381792335</v>
+        <v>427.752198423036</v>
       </c>
       <c r="K7" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L7" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M7" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N7" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O7" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P7" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
     <row r="8">
@@ -7850,43 +7850,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3518072359281</v>
+        <v>3.786945489</v>
       </c>
       <c r="F8" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>3.786945489</v>
+        <v>40.7636758772874</v>
       </c>
       <c r="H8" t="n">
-        <v>0.70829427122075</v>
+        <v>7.6242655675</v>
       </c>
       <c r="I8" t="n">
-        <v>-7.6242655675</v>
+        <v>-82.0695970667384</v>
       </c>
       <c r="J8" t="n">
-        <v>-83.8669212425</v>
+        <v>-902.765567734123</v>
       </c>
       <c r="K8" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L8" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M8" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N8" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O8" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P8" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
     <row r="9">
@@ -7903,43 +7903,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0647813065134</v>
+        <v>11.461585646</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>22.923171292</v>
+        <v>246.751036512379</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8522937479324</v>
+        <v>9.174313756</v>
       </c>
       <c r="I9" t="n">
-        <v>9.174313756</v>
+        <v>98.7547228848224</v>
       </c>
       <c r="J9" t="n">
-        <v>100.917451316</v>
+        <v>1086.30195173305</v>
       </c>
       <c r="K9" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L9" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M9" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N9" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O9" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P9" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
     <row r="10">
@@ -7956,16 +7956,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6398061893514</v>
+        <v>6.887041866</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.887041866</v>
+        <v>74.1339275134553</v>
       </c>
       <c r="H10" t="n">
-        <v>0.69950399639245</v>
+        <v>7.5296447405</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -7974,25 +7974,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L10" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M10" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N10" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O10" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P10" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
     <row r="11">
@@ -8009,16 +8009,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7592018034335</v>
+        <v>8.172247615</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.172247615</v>
+        <v>87.968219752422</v>
       </c>
       <c r="H11" t="n">
-        <v>0.97621941521875</v>
+        <v>10.5082821875</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -8027,25 +8027,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L11" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M11" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N11" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O11" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P11" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
     <row r="12">
@@ -8062,43 +8062,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>1.193237027004</v>
+        <v>12.84431676</v>
       </c>
       <c r="F12" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>12.84431676</v>
+        <v>138.259599138859</v>
       </c>
       <c r="H12" t="n">
-        <v>0.596618513502</v>
+        <v>6.42215838</v>
       </c>
       <c r="I12" t="n">
-        <v>6.42215838</v>
+        <v>69.1297995694295</v>
       </c>
       <c r="J12" t="n">
-        <v>70.64374218</v>
+        <v>760.427795263724</v>
       </c>
       <c r="K12" t="n">
-        <v>67.8487754865</v>
+        <v>735.217340828848</v>
       </c>
       <c r="L12" t="n">
-        <v>226.87690464175</v>
+        <v>2451.10064243272</v>
       </c>
       <c r="M12" t="n">
-        <v>3.34386144797694</v>
+        <v>3.33384498204228</v>
       </c>
       <c r="N12" t="n">
         <v>1.09090909090909</v>
       </c>
       <c r="O12" t="n">
-        <v>207.970495921604</v>
+        <v>2246.84225556333</v>
       </c>
       <c r="P12" t="n">
-        <v>3.06520632731219</v>
+        <v>3.05602456687209</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.036061695238341</v>
+        <v>0.032162992270455</v>
       </c>
     </row>
   </sheetData>
@@ -8182,43 +8182,43 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.018199443209075</v>
+        <v>0.29385538</v>
       </c>
       <c r="F2" t="n">
         <v>-48.4391819160387</v>
       </c>
       <c r="G2" t="n">
-        <v>0.293855380125</v>
+        <v>4.74470473627557</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0261234433393375</v>
+        <v>1.246414562</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.2653982241875</v>
+        <v>-60.3753017115178</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.7961946725625</v>
+        <v>-181.125905134553</v>
       </c>
       <c r="K2" t="n">
-        <v>3.104236327125</v>
+        <v>153.348038073197</v>
       </c>
       <c r="L2" t="n">
-        <v>8.251382007</v>
+        <v>236.759611485468</v>
       </c>
       <c r="M2" t="n">
-        <v>2.65810368073427</v>
+        <v>1.5439363584975</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>2.06284550175</v>
+        <v>59.189902871367</v>
       </c>
       <c r="P2" t="n">
-        <v>0.664525920183568</v>
+        <v>0.385984089624376</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0758760371117454</v>
+        <v>0.048845029932893</v>
       </c>
     </row>
     <row r="3">
@@ -8235,43 +8235,43 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0340474434696</v>
+        <v>2.198973744</v>
       </c>
       <c r="F3" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>2.198973744</v>
+        <v>142.021985618945</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04542358631415</v>
+        <v>1.4051904735</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4447570675</v>
+        <v>75.6291966361679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3342712025</v>
+        <v>226.887589908504</v>
       </c>
       <c r="K3" t="n">
-        <v>3.104236327125</v>
+        <v>153.348038073197</v>
       </c>
       <c r="L3" t="n">
-        <v>8.251382007</v>
+        <v>236.759611485468</v>
       </c>
       <c r="M3" t="n">
-        <v>2.65810368073427</v>
+        <v>1.5439363584975</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>2.06284550175</v>
+        <v>59.189902871367</v>
       </c>
       <c r="P3" t="n">
-        <v>0.664525920183568</v>
+        <v>0.385984089624376</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0758760371117454</v>
+        <v>0.048845029932893</v>
       </c>
     </row>
     <row r="4">
@@ -8288,43 +8288,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0567997291587</v>
+        <v>0.611407203</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.611407203</v>
+        <v>6.58134771797632</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02839986457935</v>
+        <v>0.3057036015</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3057036015</v>
+        <v>3.29067385898816</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9171108045</v>
+        <v>9.87202157696448</v>
       </c>
       <c r="K4" t="n">
-        <v>3.104236327125</v>
+        <v>153.348038073197</v>
       </c>
       <c r="L4" t="n">
-        <v>8.251382007</v>
+        <v>236.759611485468</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65810368073427</v>
+        <v>1.5439363584975</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>2.06284550175</v>
+        <v>59.189902871367</v>
       </c>
       <c r="P4" t="n">
-        <v>0.664525920183568</v>
+        <v>0.385984089624376</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0758760371117454</v>
+        <v>0.048845029932893</v>
       </c>
     </row>
   </sheetData>
@@ -8408,28 +8408,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0103119</v>
+        <v>0.111</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.111</v>
+        <v>1.19483315392896</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00515595</v>
+        <v>0.0555</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0555</v>
+        <v>0.597416576964478</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0555</v>
+        <v>0.597416576964478</v>
       </c>
       <c r="K2" t="n">
-        <v>0.111</v>
+        <v>1.19483315392896</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0555</v>
+        <v>0.597416576964478</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -8438,7 +8438,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004625</v>
+        <v>0.0497847147470398</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -8528,16 +8528,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00090113</v>
+        <v>0.0097</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0097</v>
+        <v>0.104413347685684</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04801426325245</v>
+        <v>0.5168381405</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.033676281</v>
+        <v>11.1267629817008</v>
       </c>
       <c r="L2" t="n">
-        <v>1.023976281</v>
+        <v>11.0223496340151</v>
       </c>
       <c r="M2" t="n">
         <v>0.990616017627283</v>
@@ -8558,7 +8558,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1706627135</v>
+        <v>1.83705827233585</v>
       </c>
       <c r="P2" t="n">
         <v>0.165102669604547</v>
@@ -8581,28 +8581,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0951273965049</v>
+        <v>1.023976281</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.023976281</v>
+        <v>11.0223496340151</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04756369825245</v>
+        <v>0.5119881405</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5119881405</v>
+        <v>5.51117481700753</v>
       </c>
       <c r="J3" t="n">
-        <v>1.023976281</v>
+        <v>11.0223496340151</v>
       </c>
       <c r="K3" t="n">
-        <v>1.033676281</v>
+        <v>11.1267629817008</v>
       </c>
       <c r="L3" t="n">
-        <v>1.023976281</v>
+        <v>11.0223496340151</v>
       </c>
       <c r="M3" t="n">
         <v>0.990616017627283</v>
@@ -8611,7 +8611,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1706627135</v>
+        <v>1.83705827233585</v>
       </c>
       <c r="P3" t="n">
         <v>0.165102669604547</v>
@@ -8701,43 +8701,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00062243</v>
+        <v>0.0134</v>
       </c>
       <c r="F2" t="n">
         <v>-43.0570505920344</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0134</v>
+        <v>0.288482238966631</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00438673317098654</v>
+        <v>0.120874352076923</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.188879792076923</v>
+        <v>-5.20449309265546</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.13327875246154</v>
+        <v>-31.2269585559328</v>
       </c>
       <c r="K2" t="n">
-        <v>4.70083893549077</v>
+        <v>60.2235176654798</v>
       </c>
       <c r="L2" t="n">
-        <v>11.5824534932308</v>
+        <v>149.816178436201</v>
       </c>
       <c r="M2" t="n">
-        <v>2.46391200638351</v>
+        <v>2.48766900778491</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>5.79122674661538</v>
+        <v>74.9080892181005</v>
       </c>
       <c r="P2" t="n">
-        <v>1.23195600319175</v>
+        <v>1.24383450389245</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.229102916509333</v>
+        <v>0.20244340956472</v>
       </c>
     </row>
     <row r="3">
@@ -8754,43 +8754,43 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00815103634197308</v>
+        <v>0.228348704153846</v>
       </c>
       <c r="F3" t="n">
         <v>49.5156081808396</v>
       </c>
       <c r="G3" t="n">
-        <v>0.526439376230769</v>
+        <v>14.7480325610665</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0101924866622915</v>
+        <v>0.193187938576923</v>
       </c>
       <c r="I3" t="n">
-        <v>0.504687175958461</v>
+        <v>9.56581827183903</v>
       </c>
       <c r="J3" t="n">
-        <v>3.02812305575077</v>
+        <v>57.3949096310342</v>
       </c>
       <c r="K3" t="n">
-        <v>4.70083893549077</v>
+        <v>60.2235176654798</v>
       </c>
       <c r="L3" t="n">
-        <v>11.5824534932308</v>
+        <v>149.816178436201</v>
       </c>
       <c r="M3" t="n">
-        <v>2.46391200638351</v>
+        <v>2.48766900778491</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>5.79122674661538</v>
+        <v>74.9080892181005</v>
       </c>
       <c r="P3" t="n">
-        <v>1.23195600319175</v>
+        <v>1.24383450389245</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.229102916509333</v>
+        <v>0.20244340956472</v>
       </c>
     </row>
     <row r="4">
@@ -8807,43 +8807,43 @@
         <v>15.0699677072121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01223393698261</v>
+        <v>0.158027173</v>
       </c>
       <c r="F4" t="n">
         <v>4.30570505920345</v>
       </c>
       <c r="G4" t="n">
-        <v>0.18436503526</v>
+        <v>2.38146439397201</v>
       </c>
       <c r="H4" t="n">
-        <v>0.030549485106705</v>
+        <v>0.3420116125</v>
       </c>
       <c r="I4" t="n">
-        <v>0.13153707258</v>
+        <v>1.47260113024758</v>
       </c>
       <c r="J4" t="n">
-        <v>0.78922243548</v>
+        <v>8.83560678148547</v>
       </c>
       <c r="K4" t="n">
-        <v>4.70083893549077</v>
+        <v>60.2235176654798</v>
       </c>
       <c r="L4" t="n">
-        <v>11.5824534932308</v>
+        <v>149.816178436201</v>
       </c>
       <c r="M4" t="n">
-        <v>2.46391200638351</v>
+        <v>2.48766900778491</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>5.79122674661538</v>
+        <v>74.9080892181005</v>
       </c>
       <c r="P4" t="n">
-        <v>1.23195600319175</v>
+        <v>1.24383450389245</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.229102916509333</v>
+        <v>0.20244340956472</v>
       </c>
     </row>
     <row r="5">
@@ -8860,16 +8860,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0488650332308</v>
+        <v>0.525996052</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.525996052</v>
+        <v>5.6619596555436</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0644849180755</v>
+        <v>0.694132595</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -8878,25 +8878,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>4.70083893549077</v>
+        <v>60.2235176654798</v>
       </c>
       <c r="L5" t="n">
-        <v>11.5824534932308</v>
+        <v>149.816178436201</v>
       </c>
       <c r="M5" t="n">
-        <v>2.46391200638351</v>
+        <v>2.48766900778491</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>5.79122674661538</v>
+        <v>74.9080892181005</v>
       </c>
       <c r="P5" t="n">
-        <v>1.23195600319175</v>
+        <v>1.24383450389245</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.229102916509333</v>
+        <v>0.20244340956472</v>
       </c>
     </row>
     <row r="6">
@@ -8913,16 +8913,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0801048029202</v>
+        <v>0.862269138</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.862269138</v>
+        <v>9.28169147470398</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1602821570244</v>
+        <v>1.725319236</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8931,25 +8931,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.70083893549077</v>
+        <v>60.2235176654798</v>
       </c>
       <c r="L6" t="n">
-        <v>11.5824534932308</v>
+        <v>149.816178436201</v>
       </c>
       <c r="M6" t="n">
-        <v>2.46391200638351</v>
+        <v>2.48766900778491</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>5.79122674661538</v>
+        <v>74.9080892181005</v>
       </c>
       <c r="P6" t="n">
-        <v>1.23195600319175</v>
+        <v>1.24383450389245</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.229102916509333</v>
+        <v>0.20244340956472</v>
       </c>
     </row>
     <row r="7">
@@ -8966,43 +8966,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2404595111286</v>
+        <v>2.588369334</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>2.588369334</v>
+        <v>27.8618873412271</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1202297555643</v>
+        <v>1.294184667</v>
       </c>
       <c r="I7" t="n">
-        <v>1.294184667</v>
+        <v>13.9309436706136</v>
       </c>
       <c r="J7" t="n">
-        <v>7.765108002</v>
+        <v>83.5856620236814</v>
       </c>
       <c r="K7" t="n">
-        <v>4.70083893549077</v>
+        <v>60.2235176654798</v>
       </c>
       <c r="L7" t="n">
-        <v>11.5824534932308</v>
+        <v>149.816178436201</v>
       </c>
       <c r="M7" t="n">
-        <v>2.46391200638351</v>
+        <v>2.48766900778491</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>5.79122674661538</v>
+        <v>74.9080892181005</v>
       </c>
       <c r="P7" t="n">
-        <v>1.23195600319175</v>
+        <v>1.24383450389245</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.229102916509333</v>
+        <v>0.20244340956472</v>
       </c>
     </row>
   </sheetData>
@@ -9086,16 +9086,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0414041986501</v>
+        <v>0.445685669</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.445685669</v>
+        <v>4.79747759956943</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06774180585745</v>
+        <v>0.7291905905</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -9104,10 +9104,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.458381181</v>
+        <v>15.698398073197</v>
       </c>
       <c r="L2" t="n">
-        <v>1.012695512</v>
+        <v>10.9009204736276</v>
       </c>
       <c r="M2" t="n">
         <v>0.694396996610724</v>
@@ -9116,7 +9116,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.168782585333333</v>
+        <v>1.81682007893793</v>
       </c>
       <c r="P2" t="n">
         <v>0.115732832768454</v>
@@ -9139,28 +9139,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0940794130648</v>
+        <v>1.012695512</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.012695512</v>
+        <v>10.9009204736276</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0470397065324</v>
+        <v>0.506347756</v>
       </c>
       <c r="I3" t="n">
-        <v>0.506347756</v>
+        <v>5.45046023681378</v>
       </c>
       <c r="J3" t="n">
-        <v>1.012695512</v>
+        <v>10.9009204736276</v>
       </c>
       <c r="K3" t="n">
-        <v>1.458381181</v>
+        <v>15.698398073197</v>
       </c>
       <c r="L3" t="n">
-        <v>1.012695512</v>
+        <v>10.9009204736276</v>
       </c>
       <c r="M3" t="n">
         <v>0.694396996610724</v>
@@ -9169,7 +9169,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.168782585333333</v>
+        <v>1.81682007893793</v>
       </c>
       <c r="P3" t="n">
         <v>0.115732832768454</v>
@@ -9259,43 +9259,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007432</v>
+        <v>0.008</v>
       </c>
       <c r="F2" t="n">
         <v>-124.8654467169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.016</v>
+        <v>0.172228202368138</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00329332906517576</v>
+        <v>0.123655902481422</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.411223004908922</v>
+        <v>-15.4403495025241</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.46733802945353</v>
+        <v>-92.6420970151447</v>
       </c>
       <c r="K2" t="n">
-        <v>29.1575469557526</v>
+        <v>5201.14622601602</v>
       </c>
       <c r="L2" t="n">
-        <v>160.602703466439</v>
+        <v>20467.663670931</v>
       </c>
       <c r="M2" t="n">
-        <v>5.50810065435744</v>
+        <v>3.93522173411549</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>80.3013517332194</v>
+        <v>10233.8318354655</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75405032717872</v>
+        <v>1.96761086705775</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.22082558287306</v>
+        <v>0.253832591471153</v>
       </c>
     </row>
     <row r="3">
@@ -9312,43 +9312,43 @@
         <v>146.393972012917</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00584345813035152</v>
+        <v>0.239311804962843</v>
       </c>
       <c r="F3" t="n">
         <v>-740.581270182993</v>
       </c>
       <c r="G3" t="n">
-        <v>0.855447045993333</v>
+        <v>35.0338056780911</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0126831139759011</v>
+        <v>2.49369768004274</v>
       </c>
       <c r="I3" t="n">
-        <v>-9.39287665814853</v>
+        <v>-1846.78579533843</v>
       </c>
       <c r="J3" t="n">
-        <v>-56.3572599488912</v>
+        <v>-11080.7147720306</v>
       </c>
       <c r="K3" t="n">
-        <v>29.1575469557526</v>
+        <v>5201.14622601602</v>
       </c>
       <c r="L3" t="n">
-        <v>160.602703466439</v>
+        <v>20467.663670931</v>
       </c>
       <c r="M3" t="n">
-        <v>5.50810065435744</v>
+        <v>3.93522173411549</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>80.3013517332194</v>
+        <v>10233.8318354655</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75405032717872</v>
+        <v>1.96761086705775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.22082558287306</v>
+        <v>0.253832591471153</v>
       </c>
     </row>
     <row r="4">
@@ -9365,43 +9365,43 @@
         <v>886.97524219591</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0195227698214508</v>
+        <v>4.74808355512264</v>
       </c>
       <c r="F4" t="n">
         <v>669.537136706136</v>
       </c>
       <c r="G4" t="n">
-        <v>17.3162134907163</v>
+        <v>4211.43256127132</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0212475269863158</v>
+        <v>4.24640447170211</v>
       </c>
       <c r="I4" t="n">
-        <v>14.2260083805042</v>
+        <v>2843.12549127956</v>
       </c>
       <c r="J4" t="n">
-        <v>85.3560502830252</v>
+        <v>17058.7529476774</v>
       </c>
       <c r="K4" t="n">
-        <v>29.1575469557526</v>
+        <v>5201.14622601602</v>
       </c>
       <c r="L4" t="n">
-        <v>160.602703466439</v>
+        <v>20467.663670931</v>
       </c>
       <c r="M4" t="n">
-        <v>5.50810065435744</v>
+        <v>3.93522173411549</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>80.3013517332194</v>
+        <v>10233.8318354655</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75405032717872</v>
+        <v>1.96761086705775</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.22082558287306</v>
+        <v>0.253832591471153</v>
       </c>
     </row>
     <row r="5">
@@ -9418,43 +9418,43 @@
         <v>217.438105489774</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0229722841511808</v>
+        <v>3.74472538828159</v>
       </c>
       <c r="F5" t="n">
         <v>168.998923573735</v>
       </c>
       <c r="G5" t="n">
-        <v>4.99504994460551</v>
+        <v>814.245994007406</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0561042827362841</v>
+        <v>2.95299581014079</v>
       </c>
       <c r="I5" t="n">
-        <v>9.48156339030851</v>
+        <v>499.053113231544</v>
       </c>
       <c r="J5" t="n">
-        <v>56.8893803418511</v>
+        <v>2994.31867938926</v>
       </c>
       <c r="K5" t="n">
-        <v>29.1575469557526</v>
+        <v>5201.14622601602</v>
       </c>
       <c r="L5" t="n">
-        <v>160.602703466439</v>
+        <v>20467.663670931</v>
       </c>
       <c r="M5" t="n">
-        <v>5.50810065435744</v>
+        <v>3.93522173411549</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>80.3013517332194</v>
+        <v>10233.8318354655</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75405032717872</v>
+        <v>1.96761086705775</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.22082558287306</v>
+        <v>0.253832591471153</v>
       </c>
     </row>
     <row r="6">
@@ -9471,43 +9471,43 @@
         <v>48.4391819160388</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0892362813213875</v>
+        <v>2.161266232</v>
       </c>
       <c r="F6" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G6" t="n">
-        <v>4.3225324644375</v>
+        <v>104.68996818084</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0829929012929437</v>
+        <v>1.906785121</v>
       </c>
       <c r="I6" t="n">
-        <v>2.23339346859375</v>
+        <v>51.3128396393972</v>
       </c>
       <c r="J6" t="n">
-        <v>13.4003608115625</v>
+        <v>307.877037836383</v>
       </c>
       <c r="K6" t="n">
-        <v>29.1575469557526</v>
+        <v>5201.14622601602</v>
       </c>
       <c r="L6" t="n">
-        <v>160.602703466439</v>
+        <v>20467.663670931</v>
       </c>
       <c r="M6" t="n">
-        <v>5.50810065435744</v>
+        <v>3.93522173411549</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>80.3013517332194</v>
+        <v>10233.8318354655</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75405032717872</v>
+        <v>1.96761086705775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.22082558287306</v>
+        <v>0.253832591471153</v>
       </c>
     </row>
     <row r="7">
@@ -9524,43 +9524,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0767495212645</v>
+        <v>1.65230401</v>
       </c>
       <c r="F7" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G7" t="n">
-        <v>1.65230401</v>
+        <v>35.5716686759957</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03837476063225</v>
+        <v>0.826152005</v>
       </c>
       <c r="I7" t="n">
-        <v>0.826152005</v>
+        <v>17.7858343379978</v>
       </c>
       <c r="J7" t="n">
-        <v>4.95691203</v>
+        <v>106.715006027987</v>
       </c>
       <c r="K7" t="n">
-        <v>29.1575469557526</v>
+        <v>5201.14622601602</v>
       </c>
       <c r="L7" t="n">
-        <v>160.602703466439</v>
+        <v>20467.663670931</v>
       </c>
       <c r="M7" t="n">
-        <v>5.50810065435744</v>
+        <v>3.93522173411549</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>80.3013517332194</v>
+        <v>10233.8318354655</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75405032717872</v>
+        <v>1.96761086705775</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.22082558287306</v>
+        <v>0.253832591471153</v>
       </c>
     </row>
   </sheetData>
@@ -9644,43 +9644,43 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000353166851675</v>
+        <v>0.005702371</v>
       </c>
       <c r="F2" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005702371125</v>
+        <v>0.0920727287405813</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003532098295375</v>
+        <v>0.0047524385</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0019010216875</v>
+        <v>0.025578248116254</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0095051084375</v>
+        <v>0.12789124058127</v>
       </c>
       <c r="K2" t="n">
-        <v>0.020917222125</v>
+        <v>0.255849381054898</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0190169684375</v>
+        <v>0.230279399892357</v>
       </c>
       <c r="M2" t="n">
-        <v>0.909153630623407</v>
+        <v>0.900058459953617</v>
       </c>
       <c r="N2" t="n">
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00792373684895833</v>
+        <v>0.0959497499551489</v>
       </c>
       <c r="P2" t="n">
-        <v>0.378814012759753</v>
+        <v>0.375024358314007</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0000346559199780851</v>
+        <v>-0.016859722671166</v>
       </c>
     </row>
     <row r="3">
@@ -9697,16 +9697,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003532528074</v>
+        <v>0.003802506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003802506</v>
+        <v>0.0409311733046286</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003532832786</v>
+        <v>0.003802834</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -9715,25 +9715,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.020917222125</v>
+        <v>0.255849381054898</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0190169684375</v>
+        <v>0.230279399892357</v>
       </c>
       <c r="M3" t="n">
-        <v>0.909153630623407</v>
+        <v>0.900058459953617</v>
       </c>
       <c r="N3" t="n">
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00792373684895833</v>
+        <v>0.0959497499551489</v>
       </c>
       <c r="P3" t="n">
-        <v>0.378814012759753</v>
+        <v>0.375024358314007</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0000346559199780851</v>
+        <v>-0.016859722671166</v>
       </c>
     </row>
     <row r="4">
@@ -9750,16 +9750,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003533137498</v>
+        <v>0.003803162</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003803162</v>
+        <v>0.0409382346609257</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00035337306645</v>
+        <v>0.0038038005</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -9768,25 +9768,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.020917222125</v>
+        <v>0.255849381054898</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0190169684375</v>
+        <v>0.230279399892357</v>
       </c>
       <c r="M4" t="n">
-        <v>0.909153630623407</v>
+        <v>0.900058459953617</v>
       </c>
       <c r="N4" t="n">
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00792373684895833</v>
+        <v>0.0959497499551489</v>
       </c>
       <c r="P4" t="n">
-        <v>0.378814012759753</v>
+        <v>0.375024358314007</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0000346559199780851</v>
+        <v>-0.016859722671166</v>
       </c>
     </row>
     <row r="5">
@@ -9803,16 +9803,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003534323831</v>
+        <v>0.003804439</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003804439</v>
+        <v>0.0409519806243272</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00035344655035</v>
+        <v>0.0038045915</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -9821,25 +9821,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.020917222125</v>
+        <v>0.255849381054898</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0190169684375</v>
+        <v>0.230279399892357</v>
       </c>
       <c r="M5" t="n">
-        <v>0.909153630623407</v>
+        <v>0.900058459953617</v>
       </c>
       <c r="N5" t="n">
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00792373684895833</v>
+        <v>0.0959497499551489</v>
       </c>
       <c r="P5" t="n">
-        <v>0.378814012759753</v>
+        <v>0.375024358314007</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0000346559199780851</v>
+        <v>-0.016859722671166</v>
       </c>
     </row>
     <row r="6">
@@ -9856,43 +9856,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003534607176</v>
+        <v>0.003804744</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003804744</v>
+        <v>0.0409552637244349</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001767303588</v>
+        <v>0.001902372</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001902372</v>
+        <v>0.0204776318622174</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00951186</v>
+        <v>0.102388159311087</v>
       </c>
       <c r="K6" t="n">
-        <v>0.020917222125</v>
+        <v>0.255849381054898</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0190169684375</v>
+        <v>0.230279399892357</v>
       </c>
       <c r="M6" t="n">
-        <v>0.909153630623407</v>
+        <v>0.900058459953617</v>
       </c>
       <c r="N6" t="n">
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00792373684895833</v>
+        <v>0.0959497499551489</v>
       </c>
       <c r="P6" t="n">
-        <v>0.378814012759753</v>
+        <v>0.375024358314007</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0000346559199780851</v>
+        <v>-0.016859722671166</v>
       </c>
     </row>
   </sheetData>
@@ -9976,40 +9976,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00007432</v>
+        <v>0.0008</v>
       </c>
       <c r="F2" t="n">
         <v>-30.4987441693577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0008</v>
+        <v>0.00861141011840689</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000529557130670833</v>
+        <v>0.0105588931666667</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0161508274513889</v>
+        <v>-0.322032981401746</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0646033098055556</v>
+        <v>-1.28813192560698</v>
       </c>
       <c r="K2" t="n">
-        <v>0.403905825319444</v>
+        <v>4.74870937148667</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23362732</v>
+        <v>13.279088482239</v>
       </c>
       <c r="M2" t="n">
-        <v>3.05424493203171</v>
+        <v>2.7963573770112</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.411209106666667</v>
+        <v>4.42636282741299</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01808164401057</v>
+        <v>0.932119125670401</v>
       </c>
       <c r="Q2" t="n">
         <v>0.407326652991177</v>
@@ -10029,40 +10029,40 @@
         <v>41.2630068173663</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000984794261341667</v>
+        <v>0.0203177863333333</v>
       </c>
       <c r="F3" t="n">
         <v>-1.7940437746681</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0406355723194444</v>
+        <v>0.838372955986126</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00346901086147083</v>
+        <v>0.0421999451666667</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00622355734027779</v>
+        <v>-0.0757085489175937</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0248942293611111</v>
+        <v>-0.302834195670375</v>
       </c>
       <c r="K3" t="n">
-        <v>0.403905825319444</v>
+        <v>4.74870937148667</v>
       </c>
       <c r="L3" t="n">
-        <v>1.23362732</v>
+        <v>13.279088482239</v>
       </c>
       <c r="M3" t="n">
-        <v>3.05424493203171</v>
+        <v>2.7963573770112</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.411209106666667</v>
+        <v>4.42636282741299</v>
       </c>
       <c r="P3" t="n">
-        <v>1.01808164401057</v>
+        <v>0.932119125670401</v>
       </c>
       <c r="Q3" t="n">
         <v>0.407326652991177</v>
@@ -10082,40 +10082,40 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0059532274616</v>
+        <v>0.064082104</v>
       </c>
       <c r="F4" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>0.256328416</v>
+        <v>2.75918639397201</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00790690205945</v>
+        <v>0.0851119705</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2553359115</v>
+        <v>2.74850281485468</v>
       </c>
       <c r="J4" t="n">
-        <v>1.021343646</v>
+        <v>10.9940112594187</v>
       </c>
       <c r="K4" t="n">
-        <v>0.403905825319444</v>
+        <v>4.74870937148667</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23362732</v>
+        <v>13.279088482239</v>
       </c>
       <c r="M4" t="n">
-        <v>3.05424493203171</v>
+        <v>2.7963573770112</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.411209106666667</v>
+        <v>4.42636282741299</v>
       </c>
       <c r="P4" t="n">
-        <v>1.01808164401057</v>
+        <v>0.932119125670401</v>
       </c>
       <c r="Q4" t="n">
         <v>0.407326652991177</v>
@@ -10135,40 +10135,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0098605766573</v>
+        <v>0.106141837</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.106141837</v>
+        <v>1.14253861141012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00493028832865</v>
+        <v>0.0530709185</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0530709185</v>
+        <v>0.571269305705059</v>
       </c>
       <c r="J5" t="n">
-        <v>0.212283674</v>
+        <v>2.28507722282024</v>
       </c>
       <c r="K5" t="n">
-        <v>0.403905825319444</v>
+        <v>4.74870937148667</v>
       </c>
       <c r="L5" t="n">
-        <v>1.23362732</v>
+        <v>13.279088482239</v>
       </c>
       <c r="M5" t="n">
-        <v>3.05424493203171</v>
+        <v>2.7963573770112</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.411209106666667</v>
+        <v>4.42636282741299</v>
       </c>
       <c r="P5" t="n">
-        <v>1.01808164401057</v>
+        <v>0.932119125670401</v>
       </c>
       <c r="Q5" t="n">
         <v>0.407326652991177</v>
@@ -10255,28 +10255,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>8.409678799202</v>
+        <v>90.52399138</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>90.52399138</v>
+        <v>974.424019160388</v>
       </c>
       <c r="H2" t="n">
-        <v>4.204839399601</v>
+        <v>45.26199569</v>
       </c>
       <c r="I2" t="n">
-        <v>45.26199569</v>
+        <v>487.212009580194</v>
       </c>
       <c r="J2" t="n">
-        <v>45.26199569</v>
+        <v>487.212009580194</v>
       </c>
       <c r="K2" t="n">
-        <v>90.52399138</v>
+        <v>974.424019160388</v>
       </c>
       <c r="L2" t="n">
-        <v>45.26199569</v>
+        <v>487.212009580194</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10285,7 +10285,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>3.77183297416667</v>
+        <v>40.6010007983495</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10375,28 +10375,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0042811058692</v>
+        <v>0.046082948</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.046082948</v>
+        <v>0.496048955866523</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0021405529346</v>
+        <v>0.023041474</v>
       </c>
       <c r="I2" t="n">
-        <v>0.023041474</v>
+        <v>0.248024477933262</v>
       </c>
       <c r="J2" t="n">
-        <v>0.023041474</v>
+        <v>0.248024477933262</v>
       </c>
       <c r="K2" t="n">
-        <v>0.046082948</v>
+        <v>0.496048955866523</v>
       </c>
       <c r="L2" t="n">
-        <v>0.023041474</v>
+        <v>0.248024477933262</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10405,7 +10405,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00192012283333333</v>
+        <v>0.0206687064944385</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10495,28 +10495,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02681987933966</v>
+        <v>2.886962254</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2886962254</v>
+        <v>31.076019956943</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01340993966983</v>
+        <v>1.443481127</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1443481127</v>
+        <v>15.5380099784715</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1443481127</v>
+        <v>15.5380099784715</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2886962254</v>
+        <v>31.076019956943</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1443481127</v>
+        <v>15.5380099784715</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10525,7 +10525,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0120290093916667</v>
+        <v>1.29483416487262</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10615,28 +10615,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000862112</v>
+        <v>0.00928</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00928</v>
+        <v>0.0998923573735199</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000431056</v>
+        <v>0.00464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00464</v>
+        <v>0.04994617868676</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00464</v>
+        <v>0.04994617868676</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00928</v>
+        <v>0.0998923573735199</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00464</v>
+        <v>0.04994617868676</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10645,7 +10645,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000386666666666667</v>
+        <v>0.00416218155723</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10735,16 +10735,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0536732122666</v>
+        <v>0.577752554</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.577752554</v>
+        <v>6.21908023681378</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0706699220258</v>
+        <v>0.760709602</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10753,19 +10753,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.521419204</v>
+        <v>16.3769559095802</v>
       </c>
       <c r="L2" t="n">
-        <v>0.94366665</v>
+        <v>10.1578756727664</v>
       </c>
       <c r="M2" t="n">
-        <v>0.620254199183882</v>
+        <v>0.620254199183883</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.157277775</v>
+        <v>1.6929792787944</v>
       </c>
       <c r="P2" t="n">
         <v>0.10337569986398</v>
@@ -10788,37 +10788,37 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.087666631785</v>
+        <v>0.94366665</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.94366665</v>
+        <v>10.1578756727664</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0438333158925</v>
+        <v>0.471833325</v>
       </c>
       <c r="I3" t="n">
-        <v>0.471833325</v>
+        <v>5.07893783638321</v>
       </c>
       <c r="J3" t="n">
-        <v>0.94366665</v>
+        <v>10.1578756727664</v>
       </c>
       <c r="K3" t="n">
-        <v>1.521419204</v>
+        <v>16.3769559095802</v>
       </c>
       <c r="L3" t="n">
-        <v>0.94366665</v>
+        <v>10.1578756727664</v>
       </c>
       <c r="M3" t="n">
-        <v>0.620254199183882</v>
+        <v>0.620254199183883</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.157277775</v>
+        <v>1.6929792787944</v>
       </c>
       <c r="P3" t="n">
         <v>0.10337569986398</v>
@@ -10908,43 +10908,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0068680371724</v>
+        <v>0.147858712</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.147858712</v>
+        <v>3.18318002152853</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0108048247059</v>
+        <v>0.153270649</v>
       </c>
       <c r="I2" t="n">
-        <v>0.116305971</v>
+        <v>1.64984552206674</v>
       </c>
       <c r="J2" t="n">
-        <v>0.465223884</v>
+        <v>6.59938208826695</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2656582156875</v>
+        <v>59.8400863841048</v>
       </c>
       <c r="L2" t="n">
-        <v>2.94864454</v>
+        <v>77.8852279727305</v>
       </c>
       <c r="M2" t="n">
-        <v>1.30145161330314</v>
+        <v>1.30155607518339</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.982881513333333</v>
+        <v>25.9617426575768</v>
       </c>
       <c r="P2" t="n">
-        <v>0.433817204434378</v>
+        <v>0.433852025061131</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.102239209078736</v>
+        <v>0.118221546437168</v>
       </c>
     </row>
     <row r="3">
@@ -10961,43 +10961,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0147416122394</v>
+        <v>0.158682586</v>
       </c>
       <c r="F3" t="n">
         <v>-16.1463939720129</v>
       </c>
       <c r="G3" t="n">
-        <v>0.158682586</v>
+        <v>1.70810103336921</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0207002205560937</v>
+        <v>0.43804458775</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.33423391640625</v>
+        <v>-7.07284049111948</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.336935665625</v>
+        <v>-28.2913619644779</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2656582156875</v>
+        <v>59.8400863841048</v>
       </c>
       <c r="L3" t="n">
-        <v>2.94864454</v>
+        <v>77.8852279727305</v>
       </c>
       <c r="M3" t="n">
-        <v>1.30145161330314</v>
+        <v>1.30155607518339</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.982881513333333</v>
+        <v>25.9617426575768</v>
       </c>
       <c r="P3" t="n">
-        <v>0.433817204434378</v>
+        <v>0.433852025061131</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.102239209078736</v>
+        <v>0.118221546437168</v>
       </c>
     </row>
     <row r="4">
@@ -11014,43 +11014,43 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0266588288727875</v>
+        <v>0.7174065895</v>
       </c>
       <c r="F4" t="n">
         <v>-1.7940437746681</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7174065896875</v>
+        <v>19.3058823869752</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0349584562122437</v>
+        <v>0.97955845875</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0627170007395832</v>
+        <v>-1.75737075484391</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.250868002958333</v>
+        <v>-7.02948301937565</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2656582156875</v>
+        <v>59.8400863841048</v>
       </c>
       <c r="L4" t="n">
-        <v>2.94864454</v>
+        <v>77.8852279727305</v>
       </c>
       <c r="M4" t="n">
-        <v>1.30145161330314</v>
+        <v>1.30155607518339</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.982881513333333</v>
+        <v>25.9617426575768</v>
       </c>
       <c r="P4" t="n">
-        <v>0.433817204434378</v>
+        <v>0.433852025061131</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.102239209078736</v>
+        <v>0.118221546437168</v>
       </c>
     </row>
     <row r="5">
@@ -11067,43 +11067,43 @@
         <v>28.7047003946896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0432580835517</v>
+        <v>1.241710328</v>
       </c>
       <c r="F5" t="n">
         <v>28.7047003946896</v>
       </c>
       <c r="G5" t="n">
-        <v>1.241710328</v>
+        <v>35.6429229422318</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02162904177585</v>
+        <v>0.620855164</v>
       </c>
       <c r="I5" t="n">
-        <v>0.620855164</v>
+        <v>17.8214614711159</v>
       </c>
       <c r="J5" t="n">
-        <v>2.483420656</v>
+        <v>71.2858458844636</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2656582156875</v>
+        <v>59.8400863841048</v>
       </c>
       <c r="L5" t="n">
-        <v>2.94864454</v>
+        <v>77.8852279727305</v>
       </c>
       <c r="M5" t="n">
-        <v>1.30145161330314</v>
+        <v>1.30155607518339</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.982881513333333</v>
+        <v>25.9617426575768</v>
       </c>
       <c r="P5" t="n">
-        <v>0.433817204434378</v>
+        <v>0.433852025061131</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.102239209078736</v>
+        <v>0.118221546437168</v>
       </c>
     </row>
   </sheetData>
@@ -11187,43 +11187,43 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0055968076003</v>
+        <v>0.120491014</v>
       </c>
       <c r="F2" t="n">
         <v>-32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.240982028</v>
+        <v>5.18798768568353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0149423753201531</v>
+        <v>0.36526093825</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.48253095759375</v>
+        <v>-11.7952940231432</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.7554334063125</v>
+        <v>-165.134116324004</v>
       </c>
       <c r="K2" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L2" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M2" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N2" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O2" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P2" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="3">
@@ -11240,43 +11240,43 @@
         <v>75.3498385360603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0242879430400062</v>
+        <v>0.6100308625</v>
       </c>
       <c r="F3" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8300925864375</v>
+        <v>45.9657269913886</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0379487556334518</v>
+        <v>0.887008614660714</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.204245186401786</v>
+        <v>-4.77399684962709</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.859432609625</v>
+        <v>-66.8359558947793</v>
       </c>
       <c r="K3" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L3" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M3" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N3" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O3" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P3" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="4">
@@ -11293,43 +11293,43 @@
         <v>80.7319698600646</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0516095682268973</v>
+        <v>1.16398636682143</v>
       </c>
       <c r="F4" t="n">
         <v>-107.642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>4.16654210658482</v>
+        <v>93.9709122837536</v>
       </c>
       <c r="H4" t="n">
-        <v>0.087541454203862</v>
+        <v>3.48939825991071</v>
       </c>
       <c r="I4" t="n">
-        <v>-9.42319205638988</v>
+        <v>-375.607993531831</v>
       </c>
       <c r="J4" t="n">
-        <v>-131.924688789458</v>
+        <v>-5258.51190944564</v>
       </c>
       <c r="K4" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L4" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M4" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N4" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O4" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P4" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="5">
@@ -11346,43 +11346,43 @@
         <v>188.374596340151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.123473340180827</v>
+        <v>5.814810153</v>
       </c>
       <c r="F5" t="n">
         <v>37.6749192680301</v>
       </c>
       <c r="G5" t="n">
-        <v>23.2592406153333</v>
+        <v>1095.36251536599</v>
       </c>
       <c r="H5" t="n">
-        <v>0.161276768506734</v>
+        <v>6.657570247375</v>
       </c>
       <c r="I5" t="n">
-        <v>6.0760892333</v>
+        <v>250.823421591092</v>
       </c>
       <c r="J5" t="n">
-        <v>85.0652492662</v>
+        <v>3511.5279022753</v>
       </c>
       <c r="K5" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L5" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M5" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N5" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O5" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P5" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="6">
@@ -11399,43 +11399,43 @@
         <v>150.699677072121</v>
       </c>
       <c r="E6" t="n">
-        <v>0.199080196832642</v>
+        <v>7.50033034175</v>
       </c>
       <c r="F6" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G6" t="n">
-        <v>30.0013213741333</v>
+        <v>1130.29736043595</v>
       </c>
       <c r="H6" t="n">
-        <v>0.248612982733911</v>
+        <v>8.16297929304167</v>
       </c>
       <c r="I6" t="n">
-        <v>8.02840633155794</v>
+        <v>263.605359301668</v>
       </c>
       <c r="J6" t="n">
-        <v>112.397688641811</v>
+        <v>3690.47503022336</v>
       </c>
       <c r="K6" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L6" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M6" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N6" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O6" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P6" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="7">
@@ -11452,43 +11452,43 @@
         <v>118.406889128095</v>
       </c>
       <c r="E7" t="n">
-        <v>0.29814576863518</v>
+        <v>8.82562824433333</v>
       </c>
       <c r="F7" t="n">
         <v>46.6451381413706</v>
       </c>
       <c r="G7" t="n">
-        <v>35.3025129707963</v>
+        <v>1045.01518501256</v>
       </c>
       <c r="H7" t="n">
-        <v>0.360586123158698</v>
+        <v>8.20745421658333</v>
       </c>
       <c r="I7" t="n">
-        <v>16.8195895265988</v>
+        <v>382.837835721504</v>
       </c>
       <c r="J7" t="n">
-        <v>235.474253372383</v>
+        <v>5359.72970010106</v>
       </c>
       <c r="K7" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L7" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M7" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N7" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O7" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P7" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="8">
@@ -11505,43 +11505,43 @@
         <v>71.7617509867241</v>
       </c>
       <c r="E8" t="n">
-        <v>0.423026477682217</v>
+        <v>7.58928018883333</v>
       </c>
       <c r="F8" t="n">
         <v>28.7047003946896</v>
       </c>
       <c r="G8" t="n">
-        <v>30.3571207522222</v>
+        <v>544.620035079536</v>
       </c>
       <c r="H8" t="n">
-        <v>0.427495671221658</v>
+        <v>6.89449560041667</v>
       </c>
       <c r="I8" t="n">
-        <v>12.2711351624445</v>
+        <v>197.904430582466</v>
       </c>
       <c r="J8" t="n">
-        <v>171.795892274222</v>
+        <v>2770.66202815453</v>
       </c>
       <c r="K8" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L8" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M8" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N8" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O8" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P8" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="9">
@@ -11558,43 +11558,43 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4319648647611</v>
+        <v>6.199711012</v>
       </c>
       <c r="F9" t="n">
         <v>-19.7344815213491</v>
       </c>
       <c r="G9" t="n">
-        <v>18.599133036</v>
+        <v>266.941270699677</v>
       </c>
       <c r="H9" t="n">
-        <v>0.500627100481296</v>
+        <v>9.05761377954167</v>
       </c>
       <c r="I9" t="n">
-        <v>-9.87961626353472</v>
+        <v>-178.747311759882</v>
       </c>
       <c r="J9" t="n">
-        <v>-138.314627689486</v>
+        <v>-2502.46236463835</v>
       </c>
       <c r="K9" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L9" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M9" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N9" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O9" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P9" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="10">
@@ -11611,43 +11611,43 @@
         <v>62.7915321133836</v>
       </c>
       <c r="E10" t="n">
-        <v>0.569289336201492</v>
+        <v>11.9155165470833</v>
       </c>
       <c r="F10" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G10" t="n">
-        <v>35.7465496359028</v>
+        <v>748.193539913736</v>
       </c>
       <c r="H10" t="n">
-        <v>0.650030655614496</v>
+        <v>12.2944366839583</v>
       </c>
       <c r="I10" t="n">
-        <v>6.99710070629167</v>
+        <v>132.34054557544</v>
       </c>
       <c r="J10" t="n">
-        <v>97.9594098880833</v>
+        <v>1852.76763805615</v>
       </c>
       <c r="K10" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L10" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M10" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N10" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O10" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P10" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="11">
@@ -11664,43 +11664,43 @@
         <v>52.027269465375</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7307719750275</v>
+        <v>12.6733568208333</v>
       </c>
       <c r="F11" t="n">
         <v>-26.9106566200215</v>
       </c>
       <c r="G11" t="n">
-        <v>38.0200704625</v>
+        <v>659.360150348343</v>
       </c>
       <c r="H11" t="n">
-        <v>0.824328107778331</v>
+        <v>18.4126581335</v>
       </c>
       <c r="I11" t="n">
-        <v>-22.1832106506548</v>
+        <v>-495.496720492465</v>
       </c>
       <c r="J11" t="n">
-        <v>-310.564949109167</v>
+        <v>-6936.95408689451</v>
       </c>
       <c r="K11" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L11" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M11" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N11" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O11" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P11" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="12">
@@ -11717,43 +11717,43 @@
         <v>78.9379260853965</v>
       </c>
       <c r="E12" t="n">
-        <v>0.917884240529162</v>
+        <v>24.1519594461667</v>
       </c>
       <c r="F12" t="n">
         <v>35.8808754933621</v>
       </c>
       <c r="G12" t="n">
-        <v>72.4558783338413</v>
+        <v>1906.505589579</v>
       </c>
       <c r="H12" t="n">
-        <v>0.836291271137581</v>
+        <v>20.1997504630833</v>
       </c>
       <c r="I12" t="n">
-        <v>30.006862975873</v>
+        <v>724.784731362876</v>
       </c>
       <c r="J12" t="n">
-        <v>420.096081662222</v>
+        <v>10146.9862390803</v>
       </c>
       <c r="K12" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L12" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M12" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N12" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O12" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P12" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="13">
@@ -11770,43 +11770,43 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E13" t="n">
-        <v>0.754698301746</v>
+        <v>16.24754148</v>
       </c>
       <c r="F13" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G13" t="n">
-        <v>32.49508296</v>
+        <v>699.571215500538</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6064555670432</v>
+        <v>10.589932378</v>
       </c>
       <c r="I13" t="n">
-        <v>19.584141024</v>
+        <v>341.978440624327</v>
       </c>
       <c r="J13" t="n">
-        <v>274.177974336</v>
+        <v>4787.69816874058</v>
       </c>
       <c r="K13" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L13" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M13" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N13" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O13" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P13" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="14">
@@ -11823,43 +11823,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4582128323404</v>
+        <v>4.932323276</v>
       </c>
       <c r="F14" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G14" t="n">
-        <v>4.932323276</v>
+        <v>53.0928232077503</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7781045810462</v>
+        <v>8.375722078</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.375722078</v>
+        <v>-90.1584723143165</v>
       </c>
       <c r="J14" t="n">
-        <v>-117.260109092</v>
+        <v>-1262.21861240043</v>
       </c>
       <c r="K14" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L14" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M14" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N14" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O14" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P14" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
     <row r="15">
@@ -11876,43 +11876,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E15" t="n">
-        <v>1.097996329752</v>
+        <v>11.81912088</v>
       </c>
       <c r="F15" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G15" t="n">
-        <v>23.63824176</v>
+        <v>254.448242841765</v>
       </c>
       <c r="H15" t="n">
-        <v>0.548998164876</v>
+        <v>5.90956044</v>
       </c>
       <c r="I15" t="n">
-        <v>11.81912088</v>
+        <v>127.224121420883</v>
       </c>
       <c r="J15" t="n">
-        <v>165.46769232</v>
+        <v>1781.13769989236</v>
       </c>
       <c r="K15" t="n">
-        <v>351.045091897751</v>
+        <v>8548.53255494567</v>
       </c>
       <c r="L15" t="n">
-        <v>1562.43424176092</v>
+        <v>33900.9844065236</v>
       </c>
       <c r="M15" t="n">
-        <v>4.45080782447176</v>
+        <v>3.96570805440877</v>
       </c>
       <c r="N15" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="O15" t="n">
-        <v>1822.83994872108</v>
+        <v>39551.1484742775</v>
       </c>
       <c r="P15" t="n">
-        <v>5.19260912855039</v>
+        <v>4.62665939681023</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0443617303830553</v>
+        <v>0.0385369641598625</v>
       </c>
     </row>
   </sheetData>

--- a/2P sheets/all 2P/LLC_Genus_2PSummary.xlsx
+++ b/2P sheets/all 2P/LLC_Genus_2PSummary.xlsx
@@ -6003,28 +6003,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0909162343</v>
+        <v>0.00909162343</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.978646224973089</v>
+        <v>0.0978646224973089</v>
       </c>
       <c r="H2" t="n">
-        <v>0.17734889215</v>
+        <v>0.017734889215</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.90903005543595</v>
+        <v>-0.190903005543595</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.81806011087191</v>
+        <v>-0.381806011087191</v>
       </c>
       <c r="K2" t="n">
-        <v>6.65747399677072</v>
+        <v>0.665747399677072</v>
       </c>
       <c r="L2" t="n">
-        <v>5.67882777179763</v>
+        <v>0.567882777179763</v>
       </c>
       <c r="M2" t="n">
         <v>0.853000368390805</v>
@@ -6033,7 +6033,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.946471295299605</v>
+        <v>0.0946471295299605</v>
       </c>
       <c r="P2" t="n">
         <v>0.142166728065134</v>
@@ -6056,28 +6056,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.26378155</v>
+        <v>0.026378155</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>5.67882777179763</v>
+        <v>0.567882777179763</v>
       </c>
       <c r="H3" t="n">
-        <v>0.131890775</v>
+        <v>0.0131890775</v>
       </c>
       <c r="I3" t="n">
-        <v>2.83941388589882</v>
+        <v>0.283941388589882</v>
       </c>
       <c r="J3" t="n">
-        <v>5.67882777179763</v>
+        <v>0.567882777179763</v>
       </c>
       <c r="K3" t="n">
-        <v>6.65747399677072</v>
+        <v>0.665747399677072</v>
       </c>
       <c r="L3" t="n">
-        <v>5.67882777179763</v>
+        <v>0.567882777179763</v>
       </c>
       <c r="M3" t="n">
         <v>0.853000368390805</v>
@@ -6086,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.946471295299605</v>
+        <v>0.0946471295299605</v>
       </c>
       <c r="P3" t="n">
         <v>0.142166728065134</v>
@@ -6455,28 +6455,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0714072879</v>
+        <v>0.00714072879</v>
       </c>
       <c r="F2" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>3.07458720775027</v>
+        <v>0.307458720775027</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0687999482</v>
+        <v>0.00687999482</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22174213778256</v>
+        <v>0.222174213778256</v>
       </c>
       <c r="J2" t="n">
-        <v>11.1087106889128</v>
+        <v>1.11087106889128</v>
       </c>
       <c r="K2" t="n">
-        <v>1087.17009924112</v>
+        <v>108.717009924112</v>
       </c>
       <c r="L2" t="n">
-        <v>2710.53873983854</v>
+        <v>271.053873983854</v>
       </c>
       <c r="M2" t="n">
         <v>2.49320574740842</v>
@@ -6485,7 +6485,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1129.39114159939</v>
+        <v>112.939114159939</v>
       </c>
       <c r="P2" t="n">
         <v>1.03883572808684</v>
@@ -6508,28 +6508,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0661926085</v>
+        <v>0.00661926085</v>
       </c>
       <c r="F3" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.712514623250807</v>
+        <v>0.0712514623250807</v>
       </c>
       <c r="H3" t="n">
-        <v>0.20082659235</v>
+        <v>0.020082659235</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.16175018675996</v>
+        <v>-0.216175018675996</v>
       </c>
       <c r="J3" t="n">
-        <v>-10.8087509337998</v>
+        <v>-1.08087509337998</v>
       </c>
       <c r="K3" t="n">
-        <v>1087.17009924112</v>
+        <v>108.717009924112</v>
       </c>
       <c r="L3" t="n">
-        <v>2710.53873983854</v>
+        <v>271.053873983854</v>
       </c>
       <c r="M3" t="n">
         <v>2.49320574740842</v>
@@ -6538,7 +6538,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1129.39114159939</v>
+        <v>112.939114159939</v>
       </c>
       <c r="P3" t="n">
         <v>1.03883572808684</v>
@@ -6561,28 +6561,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3354605762</v>
+        <v>0.03354605762</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>7.22197150053821</v>
+        <v>0.722197150053821</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9762280316</v>
+        <v>0.49762280316</v>
       </c>
       <c r="I4" t="n">
-        <v>53.5654255285253</v>
+        <v>5.35654255285253</v>
       </c>
       <c r="J4" t="n">
-        <v>267.827127642627</v>
+        <v>26.7827127642627</v>
       </c>
       <c r="K4" t="n">
-        <v>1087.17009924112</v>
+        <v>108.717009924112</v>
       </c>
       <c r="L4" t="n">
-        <v>2710.53873983854</v>
+        <v>271.053873983854</v>
       </c>
       <c r="M4" t="n">
         <v>2.49320574740842</v>
@@ -6591,7 +6591,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1129.39114159939</v>
+        <v>112.939114159939</v>
       </c>
       <c r="P4" t="n">
         <v>1.03883572808684</v>
@@ -6614,16 +6614,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>9.616995487</v>
+        <v>0.9616995487</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>103.519865306781</v>
+        <v>10.3519865306782</v>
       </c>
       <c r="H5" t="n">
-        <v>49.9876796535</v>
+        <v>4.99876796535</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6632,10 +6632,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1087.17009924112</v>
+        <v>108.717009924112</v>
       </c>
       <c r="L5" t="n">
-        <v>2710.53873983854</v>
+        <v>271.053873983854</v>
       </c>
       <c r="M5" t="n">
         <v>2.49320574740842</v>
@@ -6644,7 +6644,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1129.39114159939</v>
+        <v>112.939114159939</v>
       </c>
       <c r="P5" t="n">
         <v>1.03883572808684</v>
@@ -6667,28 +6667,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>90.35836382</v>
+        <v>9.035836382</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>972.641160602799</v>
+        <v>97.2641160602799</v>
       </c>
       <c r="H6" t="n">
-        <v>45.17918191</v>
+        <v>4.517918191</v>
       </c>
       <c r="I6" t="n">
-        <v>486.320580301399</v>
+        <v>48.6320580301399</v>
       </c>
       <c r="J6" t="n">
-        <v>2431.602901507</v>
+        <v>243.1602901507</v>
       </c>
       <c r="K6" t="n">
-        <v>1087.17009924112</v>
+        <v>108.717009924112</v>
       </c>
       <c r="L6" t="n">
-        <v>2710.53873983854</v>
+        <v>271.053873983854</v>
       </c>
       <c r="M6" t="n">
         <v>2.49320574740842</v>
@@ -6697,7 +6697,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1129.39114159939</v>
+        <v>112.939114159939</v>
       </c>
       <c r="P6" t="n">
         <v>1.03883572808684</v>
@@ -10495,28 +10495,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>2.886962254</v>
+        <v>0.2886962254</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>31.076019956943</v>
+        <v>3.1076019956943</v>
       </c>
       <c r="H2" t="n">
-        <v>1.443481127</v>
+        <v>0.1443481127</v>
       </c>
       <c r="I2" t="n">
-        <v>15.5380099784715</v>
+        <v>1.55380099784715</v>
       </c>
       <c r="J2" t="n">
-        <v>15.5380099784715</v>
+        <v>1.55380099784715</v>
       </c>
       <c r="K2" t="n">
-        <v>31.076019956943</v>
+        <v>3.1076019956943</v>
       </c>
       <c r="L2" t="n">
-        <v>15.5380099784715</v>
+        <v>1.55380099784715</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10525,7 +10525,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29483416487262</v>
+        <v>0.129483416487262</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
